--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$V$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$W$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -604,16 +604,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23554,17 +23557,17 @@
   </sheetPr>
   <dimension ref="A1:CR144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A92" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="M111" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
-    <col min="2" max="22" width="10.7265625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="23" width="10.7265625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -23579,7 +23582,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23589,7 +23592,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23622,6 +23625,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -23689,6 +23693,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23761,7 +23768,9 @@
       <c r="V12" s="8">
         <v>492996.50365808303</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>529733.62754927075</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23903,7 +23912,9 @@
       <c r="V13" s="8">
         <v>12072.748281808723</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="8">
+        <v>11992.826854627421</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24045,7 +24056,9 @@
       <c r="V14" s="8">
         <v>98072.119537852079</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="8">
+        <v>100557.2409395478</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24187,7 +24200,9 @@
       <c r="V15" s="8">
         <v>7811.3918921488084</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="8">
+        <v>8594.5763807803214</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24285,7 +24300,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="9"/>
+      <c r="W16" s="11"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -24427,7 +24442,9 @@
       <c r="V17" s="13">
         <v>610952.76336989261</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="13">
+        <v>650878.2717242263</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -24525,6 +24542,7 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
     </row>
     <row r="19" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -24739,7 +24757,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.25">
@@ -24749,7 +24767,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
@@ -24782,6 +24800,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -24849,6 +24868,9 @@
       </c>
       <c r="V31" s="16">
         <v>2020</v>
+      </c>
+      <c r="W31" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="32" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24921,7 +24943,9 @@
       <c r="V33" s="8">
         <v>477407.30366549629</v>
       </c>
-      <c r="W33" s="9"/>
+      <c r="W33" s="8">
+        <v>501754.67376585555</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -25063,7 +25087,9 @@
       <c r="V34" s="8">
         <v>11558.843557340018</v>
       </c>
-      <c r="W34" s="9"/>
+      <c r="W34" s="8">
+        <v>11404.800275606187</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -25205,7 +25231,9 @@
       <c r="V35" s="8">
         <v>92977.864644310743</v>
       </c>
-      <c r="W35" s="9"/>
+      <c r="W35" s="8">
+        <v>94551.014542369943</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -25347,7 +25375,9 @@
       <c r="V36" s="8">
         <v>7145.1525917045565</v>
       </c>
-      <c r="W36" s="9"/>
+      <c r="W36" s="8">
+        <v>7764.9481152888202</v>
+      </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -25445,7 +25475,7 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
-      <c r="W37" s="9"/>
+      <c r="W37" s="11"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -25587,7 +25617,9 @@
       <c r="V38" s="13">
         <v>589089.16445885156</v>
       </c>
-      <c r="W38" s="9"/>
+      <c r="W38" s="13">
+        <v>615475.43669912056</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -25685,6 +25717,7 @@
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
     </row>
     <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
@@ -25899,7 +25932,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.25">
@@ -25909,7 +25942,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.25">
@@ -25944,6 +25977,8 @@
       <c r="S51" s="17"/>
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
@@ -26007,8 +26042,12 @@
         <v>16</v>
       </c>
       <c r="U52" s="18" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="V52" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="W52" s="18"/>
     </row>
     <row r="53" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
@@ -26077,7 +26116,10 @@
       <c r="U54" s="19">
         <v>-0.72157611178799641</v>
       </c>
-      <c r="W54" s="9"/>
+      <c r="V54" s="19">
+        <v>7.4518021159571219</v>
+      </c>
+      <c r="W54" s="19"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
@@ -26211,7 +26253,10 @@
       <c r="U55" s="19">
         <v>4.7926826671758533</v>
       </c>
-      <c r="W55" s="9"/>
+      <c r="V55" s="19">
+        <v>-0.66199862132243936</v>
+      </c>
+      <c r="W55" s="19"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -26345,7 +26390,10 @@
       <c r="U56" s="19">
         <v>5.8985923505912723</v>
       </c>
-      <c r="W56" s="9"/>
+      <c r="V56" s="19">
+        <v>2.5339733793930748</v>
+      </c>
+      <c r="W56" s="19"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -26479,7 +26527,10 @@
       <c r="U57" s="19">
         <v>8.9194909170543326</v>
       </c>
-      <c r="W57" s="9"/>
+      <c r="V57" s="19">
+        <v>10.026183546349628</v>
+      </c>
+      <c r="W57" s="19"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -26571,6 +26622,7 @@
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
@@ -26705,7 +26757,10 @@
       <c r="U59" s="19">
         <v>0.50524328432597088</v>
       </c>
-      <c r="W59" s="9"/>
+      <c r="V59" s="19">
+        <v>6.5349583057964509</v>
+      </c>
+      <c r="W59" s="19"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -26797,6 +26852,8 @@
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
       <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
     </row>
     <row r="61" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
@@ -26825,7 +26882,8 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="W62" s="9"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -26917,6 +26975,7 @@
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -26999,7 +27058,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.25">
@@ -27009,7 +27068,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.25">
@@ -27041,6 +27100,8 @@
       <c r="S72" s="17"/>
       <c r="T72" s="17"/>
       <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -27104,8 +27165,12 @@
         <v>16</v>
       </c>
       <c r="U73" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="V73" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W73" s="6"/>
     </row>
     <row r="74" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
@@ -27174,7 +27239,10 @@
       <c r="U75" s="19">
         <v>-1.2758440301556959</v>
       </c>
-      <c r="W75" s="9"/>
+      <c r="V75" s="19">
+        <v>5.0999157141966833</v>
+      </c>
+      <c r="W75" s="19"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -27308,7 +27376,10 @@
       <c r="U76" s="19">
         <v>2.9841620065582219</v>
       </c>
-      <c r="W76" s="9"/>
+      <c r="V76" s="19">
+        <v>-1.3326876600558535</v>
+      </c>
+      <c r="W76" s="19"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -27442,7 +27513,10 @@
       <c r="U77" s="19">
         <v>3.856913691484948</v>
       </c>
-      <c r="W77" s="9"/>
+      <c r="V77" s="19">
+        <v>1.691961741729969</v>
+      </c>
+      <c r="W77" s="19"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
@@ -27576,7 +27650,10 @@
       <c r="U78" s="19">
         <v>2.2761740295336779</v>
       </c>
-      <c r="W78" s="9"/>
+      <c r="V78" s="19">
+        <v>8.6743497165314523</v>
+      </c>
+      <c r="W78" s="19"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
@@ -27668,6 +27745,7 @@
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
@@ -27802,7 +27880,10 @@
       <c r="U80" s="19">
         <v>-0.37591516953932569</v>
       </c>
-      <c r="W80" s="9"/>
+      <c r="V80" s="19">
+        <v>4.4791644172419893</v>
+      </c>
+      <c r="W80" s="19"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
@@ -27894,6 +27975,8 @@
       <c r="S81" s="14"/>
       <c r="T81" s="14"/>
       <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
@@ -27922,6 +28005,7 @@
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
@@ -28015,7 +28099,8 @@
       <c r="S84" s="20"/>
       <c r="T84" s="20"/>
       <c r="U84" s="20"/>
-      <c r="W84" s="9"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
@@ -28093,7 +28178,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.25">
@@ -28103,7 +28188,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.25">
@@ -28136,6 +28221,7 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
       <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
     </row>
     <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
@@ -28203,6 +28289,9 @@
       </c>
       <c r="V93" s="16">
         <v>2020</v>
+      </c>
+      <c r="W93" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="94" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28275,7 +28364,9 @@
       <c r="V95" s="19">
         <v>103.26538782982458</v>
       </c>
-      <c r="W95" s="9"/>
+      <c r="W95" s="19">
+        <v>105.57622185627544</v>
+      </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
@@ -28417,7 +28508,9 @@
       <c r="V96" s="19">
         <v>104.44598736819452</v>
       </c>
-      <c r="W96" s="9"/>
+      <c r="W96" s="19">
+        <v>105.15595683230832</v>
+      </c>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
@@ -28559,7 +28652,9 @@
       <c r="V97" s="19">
         <v>105.47899751519306</v>
       </c>
-      <c r="W97" s="9"/>
+      <c r="W97" s="19">
+        <v>106.35236589078202</v>
+      </c>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
@@ -28701,7 +28796,9 @@
       <c r="V98" s="19">
         <v>109.32435370544428</v>
       </c>
-      <c r="W98" s="9"/>
+      <c r="W98" s="19">
+        <v>110.68427313581147</v>
+      </c>
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
@@ -28799,7 +28896,7 @@
       <c r="T99" s="19"/>
       <c r="U99" s="19"/>
       <c r="V99" s="19"/>
-      <c r="W99" s="9"/>
+      <c r="W99" s="19"/>
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
@@ -28941,7 +29038,9 @@
       <c r="V100" s="19">
         <v>103.71142438702388</v>
       </c>
-      <c r="W100" s="9"/>
+      <c r="W100" s="19">
+        <v>105.75211176825772</v>
+      </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
@@ -29039,6 +29138,7 @@
       <c r="T101" s="14"/>
       <c r="U101" s="14"/>
       <c r="V101" s="14"/>
+      <c r="W101" s="14"/>
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
@@ -29057,7 +29157,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.25">
@@ -29067,7 +29167,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.25">
@@ -29100,6 +29200,7 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
@@ -29167,6 +29268,9 @@
       </c>
       <c r="V114" s="16">
         <v>2020</v>
+      </c>
+      <c r="W114" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="115" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29239,7 +29343,9 @@
       <c r="V116" s="19">
         <v>80.693063885792654</v>
       </c>
-      <c r="W116" s="9"/>
+      <c r="W116" s="19">
+        <v>81.387511392255547</v>
+      </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -29381,7 +29487,9 @@
       <c r="V117" s="19">
         <v>1.9760526517987858</v>
       </c>
-      <c r="W117" s="9"/>
+      <c r="W117" s="19">
+        <v>1.8425606408487882</v>
+      </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -29523,7 +29631,9 @@
       <c r="V118" s="19">
         <v>16.052324405066276</v>
       </c>
-      <c r="W118" s="9"/>
+      <c r="W118" s="19">
+        <v>15.449469633263988</v>
+      </c>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -29665,7 +29775,9 @@
       <c r="V119" s="19">
         <v>1.2785590573422962</v>
       </c>
-      <c r="W119" s="9"/>
+      <c r="W119" s="19">
+        <v>1.3204583336316684</v>
+      </c>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -29905,7 +30017,9 @@
       <c r="V121" s="19">
         <v>100</v>
       </c>
-      <c r="W121" s="9"/>
+      <c r="W121" s="19">
+        <v>100</v>
+      </c>
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
@@ -30003,6 +30117,7 @@
       <c r="T122" s="14"/>
       <c r="U122" s="14"/>
       <c r="V122" s="14"/>
+      <c r="W122" s="14"/>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
@@ -30217,7 +30332,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.25">
@@ -30227,7 +30342,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.25">
@@ -30260,6 +30375,7 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
       <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
     </row>
     <row r="135" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
@@ -30327,6 +30443,9 @@
       </c>
       <c r="V135" s="16">
         <v>2020</v>
+      </c>
+      <c r="W135" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="136" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30399,7 +30518,9 @@
       <c r="V137" s="19">
         <v>81.041603286669115</v>
       </c>
-      <c r="W137" s="9"/>
+      <c r="W137" s="19">
+        <v>81.523102929474305</v>
+      </c>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -30541,7 +30662,9 @@
       <c r="V138" s="19">
         <v>1.9621551803551149</v>
       </c>
-      <c r="W138" s="9"/>
+      <c r="W138" s="19">
+        <v>1.8530065694858107</v>
+      </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -30683,7 +30806,9 @@
       <c r="V139" s="19">
         <v>15.783326235464196</v>
       </c>
-      <c r="W139" s="9"/>
+      <c r="W139" s="19">
+        <v>15.362272627720131</v>
+      </c>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -30825,7 +30950,9 @@
       <c r="V140" s="19">
         <v>1.2129152975115793</v>
       </c>
-      <c r="W140" s="9"/>
+      <c r="W140" s="19">
+        <v>1.261617873319739</v>
+      </c>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
@@ -31065,7 +31192,9 @@
       <c r="V142" s="19">
         <v>100</v>
       </c>
-      <c r="W142" s="9"/>
+      <c r="W142" s="19">
+        <v>100</v>
+      </c>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
@@ -31163,6 +31292,7 @@
       <c r="T143" s="14"/>
       <c r="U143" s="14"/>
       <c r="V143" s="14"/>
+      <c r="W143" s="14"/>
     </row>
     <row r="144" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
@@ -31175,9 +31305,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="21" man="1"/>
-    <brk id="84" max="21" man="1"/>
-    <brk id="104" max="21" man="1"/>
+    <brk id="42" max="22" man="1"/>
+    <brk id="84" max="22" man="1"/>
+    <brk id="104" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0E88B4-443C-4BF3-AE00-9A16303CBB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="1" r:id="rId1"/>
@@ -610,19 +611,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -740,9 +741,9 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23551,16 +23552,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:CR144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23582,7 +23583,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23592,7 +23593,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23766,10 +23767,10 @@
         <v>496579.70417942933</v>
       </c>
       <c r="V12" s="8">
-        <v>492996.50365808303</v>
+        <v>493269.07905887556</v>
       </c>
       <c r="W12" s="8">
-        <v>529733.62754927075</v>
+        <v>530109.78710024862</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -23913,7 +23914,7 @@
         <v>12072.748281808723</v>
       </c>
       <c r="W13" s="8">
-        <v>11992.826854627421</v>
+        <v>11995.219530120474</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -24054,10 +24055,10 @@
         <v>92609.464735065951</v>
       </c>
       <c r="V14" s="8">
-        <v>98072.119537852079</v>
+        <v>97934.362798265996</v>
       </c>
       <c r="W14" s="8">
-        <v>100557.2409395478</v>
+        <v>100212.26672610085</v>
       </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -24198,10 +24199,10 @@
         <v>7171.7117169574667</v>
       </c>
       <c r="V15" s="8">
-        <v>7811.3918921488084</v>
+        <v>7775.1566847203585</v>
       </c>
       <c r="W15" s="8">
-        <v>8594.5763807803214</v>
+        <v>8559.1143689334967</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -24440,10 +24441,10 @@
         <v>607881.48300037207</v>
       </c>
       <c r="V17" s="13">
-        <v>610952.76336989261</v>
+        <v>611051.34682367055</v>
       </c>
       <c r="W17" s="13">
-        <v>650878.2717242263</v>
+        <v>650876.38772540342</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -24757,7 +24758,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.25">
@@ -24767,7 +24768,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
@@ -24941,10 +24942,10 @@
         <v>483576.99184718507</v>
       </c>
       <c r="V33" s="8">
-        <v>477407.30366549629</v>
+        <v>477694.62141923222</v>
       </c>
       <c r="W33" s="8">
-        <v>501754.67376585555</v>
+        <v>502140.70149459713</v>
       </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
@@ -25088,7 +25089,7 @@
         <v>11558.843557340018</v>
       </c>
       <c r="W34" s="8">
-        <v>11404.800275606187</v>
+        <v>11407.059989245836</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -25229,10 +25230,10 @@
         <v>89524.964048622438</v>
       </c>
       <c r="V35" s="8">
-        <v>92977.864644310743</v>
+        <v>92847.514657195861</v>
       </c>
       <c r="W35" s="8">
-        <v>94551.014542369943</v>
+        <v>94224.739929624033</v>
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
@@ -25373,10 +25374,10 @@
         <v>6986.1359788852615</v>
       </c>
       <c r="V36" s="8">
-        <v>7145.1525917045565</v>
+        <v>7112.0562275797329</v>
       </c>
       <c r="W36" s="8">
-        <v>7764.9481152888202</v>
+        <v>7732.9198883161589</v>
       </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
@@ -25615,10 +25616,10 @@
         <v>591311.99595093692</v>
       </c>
       <c r="V38" s="13">
-        <v>589089.16445885156</v>
+        <v>589213.0358613478</v>
       </c>
       <c r="W38" s="13">
-        <v>615475.43669912056</v>
+        <v>615505.42130178318</v>
       </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
@@ -25932,7 +25933,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.25">
@@ -25942,7 +25943,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.25">
@@ -26114,10 +26115,10 @@
         <v>9.2566294193770347</v>
       </c>
       <c r="U54" s="19">
-        <v>-0.72157611178799641</v>
+        <v>-0.66668554769559307</v>
       </c>
       <c r="V54" s="19">
-        <v>7.4518021159571219</v>
+        <v>7.4686838493227157</v>
       </c>
       <c r="W54" s="19"/>
       <c r="X54" s="9"/>
@@ -26254,7 +26255,7 @@
         <v>4.7926826671758533</v>
       </c>
       <c r="V55" s="19">
-        <v>-0.66199862132243936</v>
+        <v>-0.64217980760081161</v>
       </c>
       <c r="W55" s="19"/>
       <c r="X55" s="9"/>
@@ -26388,10 +26389,10 @@
         <v>8.599242881977716</v>
       </c>
       <c r="U56" s="19">
-        <v>5.8985923505912723</v>
+        <v>5.7498421769668369</v>
       </c>
       <c r="V56" s="19">
-        <v>2.5339733793930748</v>
+        <v>2.3259496082361579</v>
       </c>
       <c r="W56" s="19"/>
       <c r="X56" s="9"/>
@@ -26525,10 +26526,10 @@
         <v>7.8319018136604086</v>
       </c>
       <c r="U57" s="19">
-        <v>8.9194909170543326</v>
+        <v>8.4142390489016776</v>
       </c>
       <c r="V57" s="19">
-        <v>10.026183546349628</v>
+        <v>10.082853838222476</v>
       </c>
       <c r="W57" s="19"/>
       <c r="X57" s="9"/>
@@ -26755,10 +26756,10 @@
         <v>9.1289989139083332</v>
       </c>
       <c r="U59" s="19">
-        <v>0.50524328432597088</v>
+        <v>0.52146082944534555</v>
       </c>
       <c r="V59" s="19">
-        <v>6.5349583057964509</v>
+        <v>6.5174622572634888</v>
       </c>
       <c r="W59" s="19"/>
       <c r="X59" s="9"/>
@@ -27058,7 +27059,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.25">
@@ -27068,7 +27069,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.25">
@@ -27237,10 +27238,10 @@
         <v>6.3957945709646822</v>
       </c>
       <c r="U75" s="19">
-        <v>-1.2758440301556959</v>
+        <v>-1.2164289300620368</v>
       </c>
       <c r="V75" s="19">
-        <v>5.0999157141966833</v>
+        <v>5.1175121048538301</v>
       </c>
       <c r="W75" s="19"/>
       <c r="X75" s="9"/>
@@ -27377,7 +27378,7 @@
         <v>2.9841620065582219</v>
       </c>
       <c r="V76" s="19">
-        <v>-1.3326876600558535</v>
+        <v>-1.3131380084973898</v>
       </c>
       <c r="W76" s="19"/>
       <c r="X76" s="9"/>
@@ -27511,10 +27512,10 @@
         <v>4.9821780368780111</v>
       </c>
       <c r="U77" s="19">
-        <v>3.856913691484948</v>
+        <v>3.7113118601967727</v>
       </c>
       <c r="V77" s="19">
-        <v>1.691961741729969</v>
+        <v>1.4833194808854699</v>
       </c>
       <c r="W77" s="19"/>
       <c r="X77" s="9"/>
@@ -27648,10 +27649,10 @@
         <v>5.041635618285639</v>
       </c>
       <c r="U78" s="19">
-        <v>2.2761740295336779</v>
+        <v>1.8024305435085921</v>
       </c>
       <c r="V78" s="19">
-        <v>8.6743497165314523</v>
+        <v>8.7297349861885039</v>
       </c>
       <c r="W78" s="19"/>
       <c r="X78" s="9"/>
@@ -27878,10 +27879,10 @@
         <v>6.1543869462976204</v>
       </c>
       <c r="U80" s="19">
-        <v>-0.37591516953932569</v>
+        <v>-0.35496660036696426</v>
       </c>
       <c r="V80" s="19">
-        <v>4.4791644172419893</v>
+        <v>4.4622884831459118</v>
       </c>
       <c r="W80" s="19"/>
       <c r="X80" s="9"/>
@@ -28178,7 +28179,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.25">
@@ -28188,7 +28189,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.25">
@@ -28362,10 +28363,10 @@
         <v>102.68886083322037</v>
       </c>
       <c r="V95" s="19">
-        <v>103.26538782982458</v>
+        <v>103.26033765952222</v>
       </c>
       <c r="W95" s="19">
-        <v>105.57622185627544</v>
+        <v>105.56996983562632</v>
       </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
@@ -28509,7 +28510,7 @@
         <v>104.44598736819452</v>
       </c>
       <c r="W96" s="19">
-        <v>105.15595683230832</v>
+        <v>105.15610105872271</v>
       </c>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
@@ -28650,10 +28651,10 @@
         <v>103.44540846145247</v>
       </c>
       <c r="V97" s="19">
-        <v>105.47899751519306</v>
+        <v>105.47871223031807</v>
       </c>
       <c r="W97" s="19">
-        <v>106.35236589078202</v>
+        <v>106.35451665979537</v>
       </c>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
@@ -28794,10 +28795,10 @@
         <v>102.65634305763709</v>
       </c>
       <c r="V98" s="19">
-        <v>109.32435370544428</v>
+        <v>109.32361100534047</v>
       </c>
       <c r="W98" s="19">
-        <v>110.68427313581147</v>
+        <v>110.68412052044732</v>
       </c>
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
@@ -29036,10 +29037,10 @@
         <v>102.80215641875967</v>
       </c>
       <c r="V100" s="19">
-        <v>103.71142438702388</v>
+        <v>103.70635230946617</v>
       </c>
       <c r="W100" s="19">
-        <v>105.75211176825772</v>
+        <v>105.74665392041736</v>
       </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
@@ -29157,7 +29158,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.25">
@@ -29167,7 +29168,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.25">
@@ -29341,10 +29342,10 @@
         <v>81.690217265447671</v>
       </c>
       <c r="V116" s="19">
-        <v>80.693063885792654</v>
+        <v>80.724652948227089</v>
       </c>
       <c r="W116" s="19">
-        <v>81.387511392255547</v>
+        <v>81.445539751842304</v>
       </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
@@ -29485,10 +29486,10 @@
         <v>1.8952053469462609</v>
       </c>
       <c r="V117" s="19">
-        <v>1.9760526517987858</v>
+        <v>1.9757338470104908</v>
       </c>
       <c r="W117" s="19">
-        <v>1.8425606408487882</v>
+        <v>1.8429335825255202</v>
       </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
@@ -29629,10 +29630,10 @@
         <v>15.234789564236367</v>
       </c>
       <c r="V118" s="19">
-        <v>16.052324405066276</v>
+        <v>16.027190400175428</v>
       </c>
       <c r="W118" s="19">
-        <v>15.449469633263988</v>
+        <v>15.396512858041969</v>
       </c>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
@@ -29773,10 +29774,10 @@
         <v>1.1797878233696875</v>
       </c>
       <c r="V119" s="19">
-        <v>1.2785590573422962</v>
+        <v>1.2724228045869956</v>
       </c>
       <c r="W119" s="19">
-        <v>1.3204583336316684</v>
+        <v>1.3150138075902178</v>
       </c>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
@@ -30332,7 +30333,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.25">
@@ -30342,7 +30343,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.25">
@@ -30516,10 +30517,10 @@
         <v>81.780345259105658</v>
       </c>
       <c r="V137" s="19">
-        <v>81.041603286669115</v>
+        <v>81.073328719027558</v>
       </c>
       <c r="W137" s="19">
-        <v>81.523102929474305</v>
+        <v>81.58184869153196</v>
       </c>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
@@ -30660,10 +30661,10 @@
         <v>1.8981356970771628</v>
       </c>
       <c r="V138" s="19">
-        <v>1.9621551803551149</v>
+        <v>1.9617426726553311</v>
       </c>
       <c r="W138" s="19">
-        <v>1.8530065694858107</v>
+        <v>1.8532834308949067</v>
       </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
@@ -30804,10 +30805,10 @@
         <v>15.140055446473747</v>
       </c>
       <c r="V139" s="19">
-        <v>15.783326235464196</v>
+        <v>15.757885349815057</v>
       </c>
       <c r="W139" s="19">
-        <v>15.362272627720131</v>
+        <v>15.308515029866083</v>
       </c>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
@@ -30948,10 +30949,10 @@
         <v>1.1814635973434442</v>
       </c>
       <c r="V140" s="19">
-        <v>1.2129152975115793</v>
+        <v>1.2070432585020616</v>
       </c>
       <c r="W140" s="19">
-        <v>1.261617873319739</v>
+        <v>1.2563528477070387</v>
       </c>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>

--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0E88B4-443C-4BF3-AE00-9A16303CBB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07A4B8-52D2-4126-A434-CC378A403794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$W$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$X$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -611,13 +611,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -625,9 +628,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -701,44 +704,43 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -759,7 +761,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15126,7 +15128,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15835,7 +15837,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15858,7 +15860,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15887,7 +15889,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15950,7 +15952,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15979,7 +15981,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16010,7 +16012,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18404,7 +18406,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18492,7 +18494,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18513,7 +18515,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18570,7 +18572,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18587,7 +18589,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18628,7 +18630,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18641,7 +18643,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18688,7 +18690,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18717,7 +18719,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23134,7 +23136,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23177,7 +23179,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23559,49 +23561,49 @@
   <dimension ref="A1:CR144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
-    <col min="2" max="23" width="10.7265625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
+    <col min="2" max="24" width="10.77734375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>7</v>
@@ -23627,8 +23629,9 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -23698,11 +23701,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -23772,7 +23778,9 @@
       <c r="W12" s="8">
         <v>530109.78710024862</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>619610.70478705817</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23846,7 +23854,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -23916,7 +23924,9 @@
       <c r="W13" s="8">
         <v>11995.219530120474</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="8">
+        <v>12850.501006583283</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -23990,7 +24000,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -24060,7 +24070,9 @@
       <c r="W14" s="8">
         <v>100212.26672610085</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="8">
+        <v>103506.21122693151</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24134,7 +24146,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -24204,7 +24216,9 @@
       <c r="W15" s="8">
         <v>8559.1143689334967</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="8">
+        <v>9595.6917952459371</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24278,31 +24292,31 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="9"/>
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -24376,77 +24390,79 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>134499.7756676132</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>159999.65873976023</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>165369.32487719908</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>175192.61895283617</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>195623.08315615047</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>220570.50738867212</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>238502.59849038933</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>255295.27721948171</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>266702.38550985348</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>275784.22066120198</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <v>326132.6106203096</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <v>335334.44237328129</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <v>379746.9278681156</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="12">
         <v>401382.41626228928</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <v>426063.2610699528</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="12">
         <v>443279.15246412263</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="12">
         <v>466221.73856267205</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="12">
         <v>505119.1679411782</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="12">
         <v>557030.20191720873</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="12">
         <v>607881.48300037207</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="12">
         <v>611051.34682367055</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="12">
         <v>650876.38772540342</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="12">
+        <v>745563.10881581903</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -24520,38 +24536,39 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+    <row r="18" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -24648,8 +24665,8 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -24746,37 +24763,37 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -24802,82 +24819,86 @@
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>2000</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>2001</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>2002</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>2003</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <v>2004</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="15">
         <v>2005</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="15">
         <v>2006</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="15">
         <v>2007</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="15">
         <v>2008</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="15">
         <v>2009</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="15">
         <v>2010</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="15">
         <v>2011</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="15">
         <v>2012</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="15">
         <v>2013</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="15">
         <v>2014</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="15">
         <v>2015</v>
       </c>
-      <c r="R31" s="16">
+      <c r="R31" s="15">
         <v>2016</v>
       </c>
-      <c r="S31" s="16">
+      <c r="S31" s="15">
         <v>2017</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="15">
         <v>2018</v>
       </c>
-      <c r="U31" s="16">
+      <c r="U31" s="15">
         <v>2019</v>
       </c>
-      <c r="V31" s="16">
+      <c r="V31" s="15">
         <v>2020</v>
       </c>
-      <c r="W31" s="16">
+      <c r="W31" s="15">
         <v>2021</v>
       </c>
+      <c r="X31" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="32" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -24947,7 +24968,9 @@
       <c r="W33" s="8">
         <v>502140.70149459713</v>
       </c>
-      <c r="X33" s="9"/>
+      <c r="X33" s="8">
+        <v>526837.93615831994</v>
+      </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -25021,7 +25044,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -25091,7 +25114,9 @@
       <c r="W34" s="8">
         <v>11407.059989245836</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="8">
+        <v>11642.533596544921</v>
+      </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -25165,7 +25190,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -25235,7 +25260,9 @@
       <c r="W35" s="8">
         <v>94224.739929624033</v>
       </c>
-      <c r="X35" s="9"/>
+      <c r="X35" s="8">
+        <v>99837.592784501554</v>
+      </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -25309,7 +25336,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -25379,7 +25406,9 @@
       <c r="W36" s="8">
         <v>7732.9198883161589</v>
       </c>
-      <c r="X36" s="9"/>
+      <c r="X36" s="8">
+        <v>8559.6643753670505</v>
+      </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -25453,31 +25482,31 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="9"/>
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -25551,77 +25580,79 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>227751.85594980832</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>236233.3980694316</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <v>240080.70371129748</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>260147.63381919253</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>280209.77736000955</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>284094.65735339763</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>293444.1262587611</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <v>310704.89421498752</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="12">
         <v>331050.23231735692</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="12">
         <v>327945.49226096261</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="12">
         <v>360981.60082717257</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="12">
         <v>365609.84369157121</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="12">
         <v>387840.16089294531</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="12">
         <v>409649.52862384456</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="12">
         <v>428436.57084204972</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="12">
         <v>458765.98036681762</v>
       </c>
-      <c r="R38" s="13">
+      <c r="R38" s="12">
         <v>500471.77984184539</v>
       </c>
-      <c r="S38" s="13">
+      <c r="S38" s="12">
         <v>523160.63110542827</v>
       </c>
-      <c r="T38" s="13">
+      <c r="T38" s="12">
         <v>557030.20191720896</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U38" s="12">
         <v>591311.99595093692</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="12">
         <v>589213.0358613478</v>
       </c>
-      <c r="W38" s="13">
+      <c r="W38" s="12">
         <v>615505.42130178318</v>
       </c>
-      <c r="X38" s="9"/>
+      <c r="X38" s="12">
+        <v>646877.72691473342</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -25695,38 +25726,39 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
+    <row r="39" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -25823,8 +25855,8 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -25921,207 +25953,213 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:91" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:91" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50"/>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="18" t="s">
+      <c r="J52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K52" s="18" t="s">
+      <c r="K52" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="18" t="s">
+      <c r="L52" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M52" s="18" t="s">
+      <c r="M52" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="18" t="s">
+      <c r="N52" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O52" s="18" t="s">
+      <c r="O52" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P52" s="18" t="s">
+      <c r="P52" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="18" t="s">
+      <c r="Q52" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R52" s="18" t="s">
+      <c r="R52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="S52" s="18" t="s">
+      <c r="S52" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T52" s="18" t="s">
+      <c r="T52" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="U52" s="18" t="s">
+      <c r="U52" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="V52" s="18" t="s">
+      <c r="V52" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="W52" s="18"/>
+      <c r="W52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="X52" s="17"/>
     </row>
-    <row r="53" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="18">
         <v>22.802750469219333</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="18">
         <v>3.003869389745816</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <v>5.0762703006067511</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="18">
         <v>9.858031519406893</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="18">
         <v>11.99096732207046</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="18">
         <v>9.4119511017493522</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="18">
         <v>7.3852797107730765</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="18">
         <v>2.284429015442285</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="18">
         <v>2.200152422903372</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="18">
         <v>20.539342814553876</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="18">
         <v>1.6193066221189127</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="18">
         <v>13.828176438202135</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N54" s="18">
         <v>6.1535971464973471</v>
       </c>
-      <c r="O54" s="19">
+      <c r="O54" s="18">
         <v>5.8948885191857414</v>
       </c>
-      <c r="P54" s="19">
+      <c r="P54" s="18">
         <v>3.6381226188975972</v>
       </c>
-      <c r="Q54" s="19">
+      <c r="Q54" s="18">
         <v>4.9957475105903342</v>
       </c>
-      <c r="R54" s="19">
+      <c r="R54" s="18">
         <v>9.5991931171992775</v>
       </c>
-      <c r="S54" s="19">
+      <c r="S54" s="18">
         <v>10.476717479134905</v>
       </c>
-      <c r="T54" s="19">
+      <c r="T54" s="18">
         <v>9.2566294193770347</v>
       </c>
-      <c r="U54" s="19">
+      <c r="U54" s="18">
         <v>-0.66668554769559307</v>
       </c>
-      <c r="V54" s="19">
+      <c r="V54" s="18">
         <v>7.4686838493227157</v>
       </c>
-      <c r="W54" s="19"/>
-      <c r="X54" s="9"/>
+      <c r="W54" s="18">
+        <v>16.883468267278772</v>
+      </c>
+      <c r="X54" s="18"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
@@ -26190,75 +26228,77 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="18">
         <v>-22.816154158032091</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="18">
         <v>-3.5937955064508884</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>-8.7883721873708396</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="18">
         <v>21.800243146482416</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="18">
         <v>8.2520131891904924</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="18">
         <v>-1.9423676920307571</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="18">
         <v>3.2269170886347212</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="18">
         <v>6.2455426815688782</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="18">
         <v>6.5624007666695832</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="18">
         <v>4.5400255062651809</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="18">
         <v>3.268774176052915</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M55" s="18">
         <v>5.6661188665077873</v>
       </c>
-      <c r="N55" s="19">
+      <c r="N55" s="18">
         <v>-7.2062371346016647</v>
       </c>
-      <c r="O55" s="19">
+      <c r="O55" s="18">
         <v>4.2209118562485344</v>
       </c>
-      <c r="P55" s="19">
+      <c r="P55" s="18">
         <v>-5.8748111791360884</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q55" s="18">
         <v>-1.8967109768643979</v>
       </c>
-      <c r="R55" s="19">
+      <c r="R55" s="18">
         <v>-2.9914663691225485</v>
       </c>
-      <c r="S55" s="19">
+      <c r="S55" s="18">
         <v>7.1875309950158766</v>
       </c>
-      <c r="T55" s="19">
+      <c r="T55" s="18">
         <v>8.731976887058849</v>
       </c>
-      <c r="U55" s="19">
+      <c r="U55" s="18">
         <v>4.7926826671758533</v>
       </c>
-      <c r="V55" s="19">
+      <c r="V55" s="18">
         <v>-0.64217980760081161</v>
       </c>
-      <c r="W55" s="19"/>
-      <c r="X55" s="9"/>
+      <c r="W55" s="18">
+        <v>7.1301861071834765</v>
+      </c>
+      <c r="X55" s="18"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
@@ -26327,75 +26367,77 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="18">
         <v>21.547173851052406</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="18">
         <v>9.293746052419678</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>19.150149615424496</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="18">
         <v>23.853371637114094</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="18">
         <v>20.667873781373444</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="18">
         <v>3.5245080684234864</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H56" s="18">
         <v>7.4630602303593605</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="18">
         <v>20.336864971399521</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="18">
         <v>10.295913807527498</v>
       </c>
-      <c r="K56" s="19">
+      <c r="K56" s="18">
         <v>9.8942240021854531</v>
       </c>
-      <c r="L56" s="19">
+      <c r="L56" s="18">
         <v>9.5316366353987547</v>
       </c>
-      <c r="M56" s="19">
+      <c r="M56" s="18">
         <v>13.117205677210308</v>
       </c>
-      <c r="N56" s="19">
+      <c r="N56" s="18">
         <v>5.9474923079553434</v>
       </c>
-      <c r="O56" s="19">
+      <c r="O56" s="18">
         <v>8.1411585880154291</v>
       </c>
-      <c r="P56" s="19">
+      <c r="P56" s="18">
         <v>8.0359128354860587</v>
       </c>
-      <c r="Q56" s="19">
+      <c r="Q56" s="18">
         <v>6.8279861956052486</v>
       </c>
-      <c r="R56" s="19">
+      <c r="R56" s="18">
         <v>4.2218686801411991</v>
       </c>
-      <c r="S56" s="19">
+      <c r="S56" s="18">
         <v>9.5504552475693032</v>
       </c>
-      <c r="T56" s="19">
+      <c r="T56" s="18">
         <v>8.599242881977716</v>
       </c>
-      <c r="U56" s="19">
+      <c r="U56" s="18">
         <v>5.7498421769668369</v>
       </c>
-      <c r="V56" s="19">
+      <c r="V56" s="18">
         <v>2.3259496082361579</v>
       </c>
-      <c r="W56" s="19"/>
-      <c r="X56" s="9"/>
+      <c r="W56" s="18">
+        <v>3.286967362821585</v>
+      </c>
+      <c r="X56" s="18"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
@@ -26464,75 +26506,77 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="18">
         <v>5.407614187743917</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="18">
         <v>7.4008185897345982</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="18">
         <v>10.846244714252663</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="18">
         <v>3.5121865097864031</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="18">
         <v>6.6366577228304919</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="18">
         <v>5.3923039345161072</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H57" s="18">
         <v>-2.7969421329461568</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="18">
         <v>-6.6681798447996385</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="18">
         <v>-3.3276698299583813</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="18">
         <v>13.890618126890246</v>
       </c>
-      <c r="L57" s="19">
+      <c r="L57" s="18">
         <v>4.5675980857139393</v>
       </c>
-      <c r="M57" s="19">
+      <c r="M57" s="18">
         <v>-0.58646551984148232</v>
       </c>
-      <c r="N57" s="19">
+      <c r="N57" s="18">
         <v>4.3097293121995079</v>
       </c>
-      <c r="O57" s="19">
+      <c r="O57" s="18">
         <v>3.0601513358630115</v>
       </c>
-      <c r="P57" s="19">
+      <c r="P57" s="18">
         <v>2.1231561080929282</v>
       </c>
-      <c r="Q57" s="19">
+      <c r="Q57" s="18">
         <v>9.2479204149984611</v>
       </c>
-      <c r="R57" s="19">
+      <c r="R57" s="18">
         <v>0.27149025690371786</v>
       </c>
-      <c r="S57" s="19">
+      <c r="S57" s="18">
         <v>11.099488031831555</v>
       </c>
-      <c r="T57" s="19">
+      <c r="T57" s="18">
         <v>7.8319018136604086</v>
       </c>
-      <c r="U57" s="19">
+      <c r="U57" s="18">
         <v>8.4142390489016776</v>
       </c>
-      <c r="V57" s="19">
+      <c r="V57" s="18">
         <v>10.082853838222476</v>
       </c>
-      <c r="W57" s="19"/>
-      <c r="X57" s="9"/>
+      <c r="W57" s="18">
+        <v>12.110802375475231</v>
+      </c>
+      <c r="X57" s="18"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
@@ -26601,8 +26645,8 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -26694,75 +26738,77 @@
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
     </row>
-    <row r="59" spans="1:91" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:91" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="18">
         <v>18.959052493265432</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
         <v>3.3560484939362425</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <v>5.9402153833135287</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="18">
         <v>11.66171515982326</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="18">
         <v>12.752801883102975</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="18">
         <v>8.1298680018533389</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H59" s="18">
         <v>7.0408787306227367</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="18">
         <v>4.4682018463525708</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="18">
         <v>3.4052320656925446</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K59" s="18">
         <v>18.256443330367361</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L59" s="18">
         <v>2.8215000442518345</v>
       </c>
-      <c r="M59" s="19">
+      <c r="M59" s="18">
         <v>13.244236166291586</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N59" s="18">
         <v>5.6973438904784501</v>
       </c>
-      <c r="O59" s="19">
+      <c r="O59" s="18">
         <v>6.1489601456620449</v>
       </c>
-      <c r="P59" s="19">
+      <c r="P59" s="18">
         <v>4.0406890166817817</v>
       </c>
-      <c r="Q59" s="19">
+      <c r="Q59" s="18">
         <v>5.1756519500217877</v>
       </c>
-      <c r="R59" s="19">
+      <c r="R59" s="18">
         <v>8.3431179117524863</v>
       </c>
-      <c r="S59" s="19">
+      <c r="S59" s="18">
         <v>10.276987544863019</v>
       </c>
-      <c r="T59" s="19">
+      <c r="T59" s="18">
         <v>9.1289989139083332</v>
       </c>
-      <c r="U59" s="19">
+      <c r="U59" s="18">
         <v>0.52146082944534555</v>
       </c>
-      <c r="V59" s="19">
+      <c r="V59" s="18">
         <v>6.5174622572634888</v>
       </c>
-      <c r="W59" s="19"/>
-      <c r="X59" s="9"/>
+      <c r="W59" s="18">
+        <v>14.547573529486016</v>
+      </c>
+      <c r="X59" s="18"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
@@ -26831,61 +26877,62 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
+    <row r="60" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="9"/>
+    <row r="62" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -26954,8 +27001,8 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+    <row r="63" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -27047,64 +27094,65 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -27171,80 +27219,85 @@
       <c r="V73" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W73" s="6"/>
+      <c r="W73" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X73" s="6"/>
     </row>
-    <row r="74" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="18">
         <v>4.3356802961456395</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="18">
         <v>3.3847120968722493</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="18">
         <v>8.5007378037007584</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="18">
         <v>6.0434476801983834</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="18">
         <v>2.5016060432703426</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G75" s="18">
         <v>3.0071291131450266</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H75" s="18">
         <v>6.2068224945298596</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="18">
         <v>6.4467522951872098</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J75" s="18">
         <v>-2.4515240531347189</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K75" s="18">
         <v>11.490923714822614</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L75" s="18">
         <v>1.3658962215563832</v>
       </c>
-      <c r="M75" s="19">
+      <c r="M75" s="18">
         <v>5.8965549318778159</v>
       </c>
-      <c r="N75" s="19">
+      <c r="N75" s="18">
         <v>6.3335166122407287</v>
       </c>
-      <c r="O75" s="19">
+      <c r="O75" s="18">
         <v>4.0358271472073</v>
       </c>
-      <c r="P75" s="19">
+      <c r="P75" s="18">
         <v>8.0171088268354396</v>
       </c>
-      <c r="Q75" s="19">
+      <c r="Q75" s="18">
         <v>9.7833829249513826</v>
       </c>
-      <c r="R75" s="19">
+      <c r="R75" s="18">
         <v>5.1457535869282367</v>
       </c>
-      <c r="S75" s="19">
+      <c r="S75" s="18">
         <v>6.8533643236877992</v>
       </c>
-      <c r="T75" s="19">
+      <c r="T75" s="18">
         <v>6.3957945709646822</v>
       </c>
-      <c r="U75" s="19">
+      <c r="U75" s="18">
         <v>-1.2164289300620368</v>
       </c>
-      <c r="V75" s="19">
+      <c r="V75" s="18">
         <v>5.1175121048538301</v>
       </c>
-      <c r="W75" s="19"/>
-      <c r="X75" s="9"/>
+      <c r="W75" s="18">
+        <v>4.9183893259822753</v>
+      </c>
+      <c r="X75" s="18"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
@@ -27313,75 +27366,77 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="18">
         <v>-7.9227025148303767</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="18">
         <v>-0.90727105571039601</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="18">
         <v>-7.7428263977975291</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76" s="18">
         <v>9.5596696831596262</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="18">
         <v>-3.3196918377680618</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G76" s="18">
         <v>6.0780295311470667</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76" s="18">
         <v>-2.031771885142561</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="18">
         <v>5.3627913136981391</v>
       </c>
-      <c r="J76" s="19">
+      <c r="J76" s="18">
         <v>-3.3652610459114669</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K76" s="18">
         <v>5.151279028535555</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L76" s="18">
         <v>0.94329951404607471</v>
       </c>
-      <c r="M76" s="19">
+      <c r="M76" s="18">
         <v>7.2262187393470185</v>
       </c>
-      <c r="N76" s="19">
+      <c r="N76" s="18">
         <v>-3.143228351270082</v>
       </c>
-      <c r="O76" s="19">
+      <c r="O76" s="18">
         <v>12.101169330089419</v>
       </c>
-      <c r="P76" s="19">
+      <c r="P76" s="18">
         <v>3.1812260277773134</v>
       </c>
-      <c r="Q76" s="19">
+      <c r="Q76" s="18">
         <v>5.9736207967880688</v>
       </c>
-      <c r="R76" s="19">
+      <c r="R76" s="18">
         <v>-3.7649428372655223</v>
       </c>
-      <c r="S76" s="19">
+      <c r="S76" s="18">
         <v>1.4177294323857836</v>
       </c>
-      <c r="T76" s="19">
+      <c r="T76" s="18">
         <v>5.9317247067900496</v>
       </c>
-      <c r="U76" s="19">
+      <c r="U76" s="18">
         <v>2.9841620065582219</v>
       </c>
-      <c r="V76" s="19">
+      <c r="V76" s="18">
         <v>-1.3131380084973898</v>
       </c>
-      <c r="W76" s="19"/>
-      <c r="X76" s="9"/>
+      <c r="W76" s="18">
+        <v>2.0642795560037399</v>
+      </c>
+      <c r="X76" s="18"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
@@ -27450,75 +27505,77 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="18">
         <v>4.7009033646447307</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="18">
         <v>-6.6174321472050224</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="18">
         <v>11.263024301539431</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="18">
         <v>18.173440407951816</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="18">
         <v>-3.1618800749078844</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G77" s="18">
         <v>3.4486216381064878</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77" s="18">
         <v>6.3063296103085662</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I77" s="18">
         <v>8.4187462673622093</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J77" s="18">
         <v>7.5515221750611659</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K77" s="18">
         <v>3.9982090823181551</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L77" s="18">
         <v>0.71739573153332969</v>
       </c>
-      <c r="M77" s="19">
+      <c r="M77" s="18">
         <v>7.9100011258745155</v>
       </c>
-      <c r="N77" s="19">
+      <c r="N77" s="18">
         <v>4.1567963828136953</v>
       </c>
-      <c r="O77" s="19">
+      <c r="O77" s="18">
         <v>6.9713514665128002</v>
       </c>
-      <c r="P77" s="19">
+      <c r="P77" s="18">
         <v>3.8873619686589791</v>
       </c>
-      <c r="Q77" s="19">
+      <c r="Q77" s="18">
         <v>6.5767334020848409</v>
       </c>
-      <c r="R77" s="19">
+      <c r="R77" s="18">
         <v>2.9194242594011968</v>
       </c>
-      <c r="S77" s="19">
+      <c r="S77" s="18">
         <v>5.3764001671048618</v>
       </c>
-      <c r="T77" s="19">
+      <c r="T77" s="18">
         <v>4.9821780368780111</v>
       </c>
-      <c r="U77" s="19">
+      <c r="U77" s="18">
         <v>3.7113118601967727</v>
       </c>
-      <c r="V77" s="19">
+      <c r="V77" s="18">
         <v>1.4833194808854699</v>
       </c>
-      <c r="W77" s="19"/>
-      <c r="X77" s="9"/>
+      <c r="W77" s="18">
+        <v>5.9568780546061788</v>
+      </c>
+      <c r="X77" s="18"/>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
@@ -27587,75 +27644,77 @@
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
     </row>
-    <row r="78" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="18">
         <v>-4.188973171395233</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="18">
         <v>1.2883598648109</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="18">
         <v>7.8832469150702593</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="18">
         <v>-3.7150178851986055</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="18">
         <v>0.80707612179014632</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G78" s="18">
         <v>9.6571511276733872</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="18">
         <v>0.85550829099156545</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="18">
         <v>-2.3282615962160662</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J78" s="18">
         <v>-5.0147712279031396</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="18">
         <v>12.974233445313473</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L78" s="18">
         <v>3.0856994787857843</v>
       </c>
-      <c r="M78" s="19">
+      <c r="M78" s="18">
         <v>-3.3638875904366756</v>
       </c>
-      <c r="N78" s="19">
+      <c r="N78" s="18">
         <v>-1.2717419203590197</v>
       </c>
-      <c r="O78" s="19">
+      <c r="O78" s="18">
         <v>-2.2561487128642739</v>
       </c>
-      <c r="P78" s="19">
+      <c r="P78" s="18">
         <v>-1.5216308840271751</v>
       </c>
-      <c r="Q78" s="19">
+      <c r="Q78" s="18">
         <v>3.0534134380585414</v>
       </c>
-      <c r="R78" s="19">
+      <c r="R78" s="18">
         <v>-0.22629100144551728</v>
       </c>
-      <c r="S78" s="19">
+      <c r="S78" s="18">
         <v>3.410666565414715</v>
       </c>
-      <c r="T78" s="19">
+      <c r="T78" s="18">
         <v>5.041635618285639</v>
       </c>
-      <c r="U78" s="19">
+      <c r="U78" s="18">
         <v>1.8024305435085921</v>
       </c>
-      <c r="V78" s="19">
+      <c r="V78" s="18">
         <v>8.7297349861885039</v>
       </c>
-      <c r="W78" s="19"/>
-      <c r="X78" s="9"/>
+      <c r="W78" s="18">
+        <v>10.691233052860639</v>
+      </c>
+      <c r="X78" s="18"/>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
@@ -27724,8 +27783,8 @@
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
     </row>
-    <row r="79" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
+    <row r="79" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -27817,75 +27876,77 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:91" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:91" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="18">
         <v>3.724027663463886</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="18">
         <v>1.6286036069866441</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="18">
         <v>8.358410233596274</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="18">
         <v>7.7118301044247062</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="18">
         <v>1.3864184290746095</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G80" s="18">
         <v>3.2909696340164771</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="18">
         <v>5.8821310129089994</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="18">
         <v>6.5481228268942999</v>
       </c>
-      <c r="J80" s="19">
+      <c r="J80" s="18">
         <v>-0.9378456056837905</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K80" s="18">
         <v>10.073658380985307</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="18">
         <v>1.2821270817662764</v>
       </c>
-      <c r="M80" s="19">
+      <c r="M80" s="18">
         <v>6.0803388051355682</v>
       </c>
-      <c r="N80" s="19">
+      <c r="N80" s="18">
         <v>5.6232876143322414</v>
       </c>
-      <c r="O80" s="19">
+      <c r="O80" s="18">
         <v>4.5861256770677556</v>
       </c>
-      <c r="P80" s="19">
+      <c r="P80" s="18">
         <v>7.0790897857198445</v>
       </c>
-      <c r="Q80" s="19">
+      <c r="Q80" s="18">
         <v>9.0908657703173503</v>
       </c>
-      <c r="R80" s="19">
+      <c r="R80" s="18">
         <v>4.5334926318428614</v>
       </c>
-      <c r="S80" s="19">
+      <c r="S80" s="18">
         <v>6.4740289689258361</v>
       </c>
-      <c r="T80" s="19">
+      <c r="T80" s="18">
         <v>6.1543869462976204</v>
       </c>
-      <c r="U80" s="19">
+      <c r="U80" s="18">
         <v>-0.35496660036696426</v>
       </c>
-      <c r="V80" s="19">
+      <c r="V80" s="18">
         <v>4.4622884831459118</v>
       </c>
-      <c r="W80" s="19"/>
-      <c r="X80" s="9"/>
+      <c r="W80" s="18">
+        <v>5.096999072176871</v>
+      </c>
+      <c r="X80" s="18"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
@@ -27954,38 +28015,39 @@
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="14"/>
-      <c r="W81" s="14"/>
+    <row r="81" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
+    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -28078,31 +28140,31 @@
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="20"/>
-      <c r="W84" s="20"/>
-      <c r="X84" s="9"/>
+    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
@@ -28172,32 +28234,32 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
         <v>7</v>
@@ -28223,152 +28285,158 @@
       <c r="U92" s="5"/>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="15">
         <v>2000</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="15">
         <v>2001</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="15">
         <v>2002</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E93" s="15">
         <v>2003</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="15">
         <v>2004</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="15">
         <v>2005</v>
       </c>
-      <c r="H93" s="16">
+      <c r="H93" s="15">
         <v>2006</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I93" s="15">
         <v>2007</v>
       </c>
-      <c r="J93" s="16">
+      <c r="J93" s="15">
         <v>2008</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="15">
         <v>2009</v>
       </c>
-      <c r="L93" s="16">
+      <c r="L93" s="15">
         <v>2010</v>
       </c>
-      <c r="M93" s="16">
+      <c r="M93" s="15">
         <v>2011</v>
       </c>
-      <c r="N93" s="16">
+      <c r="N93" s="15">
         <v>2012</v>
       </c>
-      <c r="O93" s="16">
+      <c r="O93" s="15">
         <v>2013</v>
       </c>
-      <c r="P93" s="16">
+      <c r="P93" s="15">
         <v>2014</v>
       </c>
-      <c r="Q93" s="16">
+      <c r="Q93" s="15">
         <v>2015</v>
       </c>
-      <c r="R93" s="16">
+      <c r="R93" s="15">
         <v>2016</v>
       </c>
-      <c r="S93" s="16">
+      <c r="S93" s="15">
         <v>2017</v>
       </c>
-      <c r="T93" s="16">
+      <c r="T93" s="15">
         <v>2018</v>
       </c>
-      <c r="U93" s="16">
+      <c r="U93" s="15">
         <v>2019</v>
       </c>
-      <c r="V93" s="16">
+      <c r="V93" s="15">
         <v>2020</v>
       </c>
-      <c r="W93" s="16">
+      <c r="W93" s="15">
         <v>2021</v>
       </c>
+      <c r="X93" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="94" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="19">
+      <c r="B95" s="18">
         <v>61.460884709065724</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C95" s="18">
         <v>72.339257932874929</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="18">
         <v>72.072778699496027</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E95" s="18">
         <v>69.798039434951676</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="18">
         <v>72.308807229299092</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95" s="18">
         <v>79.00298912483224</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95" s="18">
         <v>83.915271277229607</v>
       </c>
-      <c r="I95" s="19">
+      <c r="I95" s="18">
         <v>84.846384313727356</v>
       </c>
-      <c r="J95" s="19">
+      <c r="J95" s="18">
         <v>81.528687220894767</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K95" s="18">
         <v>85.41644736052298</v>
       </c>
-      <c r="L95" s="19">
+      <c r="L95" s="18">
         <v>92.348705054477236</v>
       </c>
-      <c r="M95" s="19">
+      <c r="M95" s="18">
         <v>92.579572863194031</v>
       </c>
-      <c r="N95" s="19">
+      <c r="N95" s="18">
         <v>99.513756242817664</v>
       </c>
-      <c r="O95" s="19">
+      <c r="O95" s="18">
         <v>99.345376014007826</v>
       </c>
-      <c r="P95" s="19">
+      <c r="P95" s="18">
         <v>101.12062167789809</v>
       </c>
-      <c r="Q95" s="19">
+      <c r="Q95" s="18">
         <v>97.021217310618752</v>
       </c>
-      <c r="R95" s="19">
+      <c r="R95" s="18">
         <v>92.790137856105375</v>
       </c>
-      <c r="S95" s="19">
+      <c r="S95" s="18">
         <v>96.720256323571988</v>
       </c>
-      <c r="T95" s="19">
+      <c r="T95" s="18">
         <v>99.999999999999929</v>
       </c>
-      <c r="U95" s="19">
+      <c r="U95" s="18">
         <v>102.68886083322037</v>
       </c>
-      <c r="V95" s="19">
+      <c r="V95" s="18">
         <v>103.26033765952222</v>
       </c>
-      <c r="W95" s="19">
+      <c r="W95" s="18">
         <v>105.56996983562632</v>
       </c>
-      <c r="X95" s="9"/>
+      <c r="X95" s="18">
+        <v>117.60935617226681</v>
+      </c>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
@@ -28442,77 +28510,79 @@
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
     </row>
-    <row r="96" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="19">
+      <c r="B96" s="18">
         <v>114.53383992949281</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="18">
         <v>96.008055039087566</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="18">
         <v>93.405159851131273</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="18">
         <v>92.346603992614902</v>
       </c>
-      <c r="F96" s="19">
+      <c r="F96" s="18">
         <v>102.66404464873374</v>
       </c>
-      <c r="G96" s="19">
+      <c r="G96" s="18">
         <v>114.95194550602268</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96" s="18">
         <v>106.26060509735981</v>
       </c>
-      <c r="I96" s="19">
+      <c r="I96" s="18">
         <v>111.96440808660306</v>
       </c>
-      <c r="J96" s="19">
+      <c r="J96" s="18">
         <v>112.90246917210543</v>
       </c>
-      <c r="K96" s="19">
+      <c r="K96" s="18">
         <v>124.50137805184632</v>
       </c>
-      <c r="L96" s="19">
+      <c r="L96" s="18">
         <v>123.77764072249767</v>
       </c>
-      <c r="M96" s="19">
+      <c r="M96" s="18">
         <v>126.62916002698704</v>
       </c>
-      <c r="N96" s="19">
+      <c r="N96" s="18">
         <v>124.78675488784783</v>
       </c>
-      <c r="O96" s="19">
+      <c r="O96" s="18">
         <v>119.55212159869031</v>
       </c>
-      <c r="P96" s="19">
+      <c r="P96" s="18">
         <v>111.14809240460104</v>
       </c>
-      <c r="Q96" s="19">
+      <c r="Q96" s="18">
         <v>101.39281715692626</v>
       </c>
-      <c r="R96" s="19">
+      <c r="R96" s="18">
         <v>93.862687446434393</v>
       </c>
-      <c r="S96" s="19">
+      <c r="S96" s="18">
         <v>94.617096308619693</v>
       </c>
-      <c r="T96" s="19">
+      <c r="T96" s="18">
         <v>100</v>
       </c>
-      <c r="U96" s="19">
+      <c r="U96" s="18">
         <v>102.64345000331079</v>
       </c>
-      <c r="V96" s="19">
+      <c r="V96" s="18">
         <v>104.44598736819452</v>
       </c>
-      <c r="W96" s="19">
+      <c r="W96" s="18">
         <v>105.15610105872271</v>
       </c>
-      <c r="X96" s="9"/>
+      <c r="X96" s="18">
+        <v>110.37546853544697</v>
+      </c>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
@@ -28586,77 +28656,79 @@
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B97" s="18">
         <v>33.620585705979337</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C97" s="18">
         <v>39.030104272804181</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="18">
         <v>45.680327740780214</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="18">
         <v>48.9184787036234</v>
       </c>
-      <c r="F97" s="19">
+      <c r="F97" s="18">
         <v>51.269714259706312</v>
       </c>
-      <c r="G97" s="19">
+      <c r="G97" s="18">
         <v>63.886075172492966</v>
       </c>
-      <c r="H97" s="19">
+      <c r="H97" s="18">
         <v>63.932939849035144</v>
       </c>
-      <c r="I97" s="19">
+      <c r="I97" s="18">
         <v>64.628601052129426</v>
       </c>
-      <c r="J97" s="19">
+      <c r="J97" s="18">
         <v>71.733012102186194</v>
       </c>
-      <c r="K97" s="19">
+      <c r="K97" s="18">
         <v>73.563422999248289</v>
       </c>
-      <c r="L97" s="19">
+      <c r="L97" s="18">
         <v>77.733985582847794</v>
       </c>
-      <c r="M97" s="19">
+      <c r="M97" s="18">
         <v>84.536842928079039</v>
       </c>
-      <c r="N97" s="19">
+      <c r="N97" s="18">
         <v>88.616174117568775</v>
       </c>
-      <c r="O97" s="19">
+      <c r="O97" s="18">
         <v>90.139690848159731</v>
       </c>
-      <c r="P97" s="19">
+      <c r="P97" s="18">
         <v>91.125431897876496</v>
       </c>
-      <c r="Q97" s="19">
+      <c r="Q97" s="18">
         <v>94.76435854233182</v>
       </c>
-      <c r="R97" s="19">
+      <c r="R97" s="18">
         <v>94.987763867770937</v>
       </c>
-      <c r="S97" s="19">
+      <c r="S97" s="18">
         <v>96.189833195095687</v>
       </c>
-      <c r="T97" s="19">
+      <c r="T97" s="18">
         <v>100</v>
       </c>
-      <c r="U97" s="19">
+      <c r="U97" s="18">
         <v>103.44540846145247</v>
       </c>
-      <c r="V97" s="19">
+      <c r="V97" s="18">
         <v>105.47871223031807</v>
       </c>
-      <c r="W97" s="19">
+      <c r="W97" s="18">
         <v>106.35451665979537</v>
       </c>
-      <c r="X97" s="9"/>
+      <c r="X97" s="18">
+        <v>103.67458623561632</v>
+      </c>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
@@ -28730,77 +28802,79 @@
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
     </row>
-    <row r="98" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="19">
+      <c r="B98" s="18">
         <v>58.54376206487386</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C98" s="18">
         <v>64.407599929728946</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="18">
         <v>68.294411767410196</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E98" s="18">
         <v>70.170107925522657</v>
       </c>
-      <c r="F98" s="19">
+      <c r="F98" s="18">
         <v>75.437115316054744</v>
       </c>
-      <c r="G98" s="19">
+      <c r="G98" s="18">
         <v>79.799575139318804</v>
       </c>
-      <c r="H98" s="19">
+      <c r="H98" s="18">
         <v>76.695965474575473</v>
       </c>
-      <c r="I98" s="19">
+      <c r="I98" s="18">
         <v>73.918445274055628</v>
       </c>
-      <c r="J98" s="19">
+      <c r="J98" s="18">
         <v>70.633974097494985</v>
       </c>
-      <c r="K98" s="19">
+      <c r="K98" s="18">
         <v>71.888555235875984</v>
       </c>
-      <c r="L98" s="19">
+      <c r="L98" s="18">
         <v>72.471675552693455</v>
       </c>
-      <c r="M98" s="19">
+      <c r="M98" s="18">
         <v>73.513485188620578</v>
       </c>
-      <c r="N98" s="19">
+      <c r="N98" s="18">
         <v>75.626338977521982</v>
       </c>
-      <c r="O98" s="19">
+      <c r="O98" s="18">
         <v>79.901773829074401</v>
       </c>
-      <c r="P98" s="19">
+      <c r="P98" s="18">
         <v>84.247641098546424</v>
       </c>
-      <c r="Q98" s="19">
+      <c r="Q98" s="18">
         <v>87.365734027473479</v>
       </c>
-      <c r="R98" s="19">
+      <c r="R98" s="18">
         <v>92.617259725881809</v>
       </c>
-      <c r="S98" s="19">
+      <c r="S98" s="18">
         <v>93.079336725463691</v>
       </c>
-      <c r="T98" s="19">
+      <c r="T98" s="18">
         <v>100.00000000000003</v>
       </c>
-      <c r="U98" s="19">
+      <c r="U98" s="18">
         <v>102.65634305763709</v>
       </c>
-      <c r="V98" s="19">
+      <c r="V98" s="18">
         <v>109.32361100534047</v>
       </c>
-      <c r="W98" s="19">
+      <c r="W98" s="18">
         <v>110.68412052044732</v>
       </c>
-      <c r="X98" s="9"/>
+      <c r="X98" s="18">
+        <v>112.10359862777284</v>
+      </c>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
@@ -28874,31 +28948,31 @@
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
     </row>
-    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
-      <c r="S99" s="19"/>
-      <c r="T99" s="19"/>
-      <c r="U99" s="19"/>
-      <c r="V99" s="19"/>
-      <c r="W99" s="19"/>
-      <c r="X99" s="9"/>
+    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="18"/>
+      <c r="U99" s="18"/>
+      <c r="V99" s="18"/>
+      <c r="W99" s="18"/>
+      <c r="X99" s="18"/>
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
@@ -28972,77 +29046,79 @@
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="19">
+      <c r="B100" s="18">
         <v>59.055402691099957</v>
       </c>
-      <c r="C100" s="19">
+      <c r="C100" s="18">
         <v>67.729482811204605</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="18">
         <v>68.880723157184448</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E100" s="18">
         <v>67.343537352562791</v>
       </c>
-      <c r="F100" s="19">
+      <c r="F100" s="18">
         <v>69.81308254094813</v>
       </c>
-      <c r="G100" s="19">
+      <c r="G100" s="18">
         <v>77.63979423037685</v>
       </c>
-      <c r="H100" s="19">
+      <c r="H100" s="18">
         <v>81.277005449438121</v>
       </c>
-      <c r="I100" s="19">
+      <c r="I100" s="18">
         <v>82.166480790236278</v>
       </c>
-      <c r="J100" s="19">
+      <c r="J100" s="18">
         <v>80.562512716856446</v>
       </c>
-      <c r="K100" s="19">
+      <c r="K100" s="18">
         <v>84.094530087867994</v>
       </c>
-      <c r="L100" s="19">
+      <c r="L100" s="18">
         <v>90.346048073639167</v>
       </c>
-      <c r="M100" s="19">
+      <c r="M100" s="18">
         <v>91.71920509234694</v>
       </c>
-      <c r="N100" s="19">
+      <c r="N100" s="18">
         <v>97.913255551927307</v>
       </c>
-      <c r="O100" s="19">
+      <c r="O100" s="18">
         <v>97.981906047999772</v>
       </c>
-      <c r="P100" s="19">
+      <c r="P100" s="18">
         <v>99.446053410559131</v>
       </c>
-      <c r="Q100" s="19">
+      <c r="Q100" s="18">
         <v>96.624242300984889</v>
       </c>
-      <c r="R100" s="19">
+      <c r="R100" s="18">
         <v>93.156449042941688</v>
       </c>
-      <c r="S100" s="19">
+      <c r="S100" s="18">
         <v>96.551448619876297</v>
       </c>
-      <c r="T100" s="19">
+      <c r="T100" s="18">
         <v>99.999999999999957</v>
       </c>
-      <c r="U100" s="19">
+      <c r="U100" s="18">
         <v>102.80215641875967</v>
       </c>
-      <c r="V100" s="19">
+      <c r="V100" s="18">
         <v>103.70635230946617</v>
       </c>
-      <c r="W100" s="19">
+      <c r="W100" s="18">
         <v>105.74665392041736</v>
       </c>
-      <c r="X100" s="9"/>
+      <c r="X100" s="18">
+        <v>115.2556469012719</v>
+      </c>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
@@ -29116,67 +29192,68 @@
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
     </row>
-    <row r="101" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="14"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="14"/>
-      <c r="W101" s="14"/>
+    <row r="101" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
+      <c r="X101" s="13"/>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
         <v>7</v>
@@ -29202,152 +29279,158 @@
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="16">
+      <c r="B114" s="15">
         <v>2000</v>
       </c>
-      <c r="C114" s="16">
+      <c r="C114" s="15">
         <v>2001</v>
       </c>
-      <c r="D114" s="16">
+      <c r="D114" s="15">
         <v>2002</v>
       </c>
-      <c r="E114" s="16">
+      <c r="E114" s="15">
         <v>2003</v>
       </c>
-      <c r="F114" s="16">
+      <c r="F114" s="15">
         <v>2004</v>
       </c>
-      <c r="G114" s="16">
+      <c r="G114" s="15">
         <v>2005</v>
       </c>
-      <c r="H114" s="16">
+      <c r="H114" s="15">
         <v>2006</v>
       </c>
-      <c r="I114" s="16">
+      <c r="I114" s="15">
         <v>2007</v>
       </c>
-      <c r="J114" s="16">
+      <c r="J114" s="15">
         <v>2008</v>
       </c>
-      <c r="K114" s="16">
+      <c r="K114" s="15">
         <v>2009</v>
       </c>
-      <c r="L114" s="16">
+      <c r="L114" s="15">
         <v>2010</v>
       </c>
-      <c r="M114" s="16">
+      <c r="M114" s="15">
         <v>2011</v>
       </c>
-      <c r="N114" s="16">
+      <c r="N114" s="15">
         <v>2012</v>
       </c>
-      <c r="O114" s="16">
+      <c r="O114" s="15">
         <v>2013</v>
       </c>
-      <c r="P114" s="16">
+      <c r="P114" s="15">
         <v>2014</v>
       </c>
-      <c r="Q114" s="16">
+      <c r="Q114" s="15">
         <v>2015</v>
       </c>
-      <c r="R114" s="16">
+      <c r="R114" s="15">
         <v>2016</v>
       </c>
-      <c r="S114" s="16">
+      <c r="S114" s="15">
         <v>2017</v>
       </c>
-      <c r="T114" s="16">
+      <c r="T114" s="15">
         <v>2018</v>
       </c>
-      <c r="U114" s="16">
+      <c r="U114" s="15">
         <v>2019</v>
       </c>
-      <c r="V114" s="16">
+      <c r="V114" s="15">
         <v>2020</v>
       </c>
-      <c r="W114" s="16">
+      <c r="W114" s="15">
         <v>2021</v>
       </c>
+      <c r="X114" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="115" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="19">
+      <c r="B116" s="18">
         <v>81.476812080543155</v>
       </c>
-      <c r="C116" s="19">
+      <c r="C116" s="18">
         <v>84.109417595780329</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="18">
         <v>83.82282015156207</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E116" s="18">
         <v>83.139242975260032</v>
       </c>
-      <c r="F116" s="19">
+      <c r="F116" s="18">
         <v>81.796285881896011</v>
       </c>
-      <c r="G116" s="19">
+      <c r="G116" s="18">
         <v>81.243614582307998</v>
       </c>
-      <c r="H116" s="19">
+      <c r="H116" s="18">
         <v>82.206910544425128</v>
       </c>
-      <c r="I116" s="19">
+      <c r="I116" s="18">
         <v>82.471408938892537</v>
       </c>
-      <c r="J116" s="19">
+      <c r="J116" s="18">
         <v>80.747450653169111</v>
       </c>
-      <c r="K116" s="19">
+      <c r="K116" s="18">
         <v>79.80642371434422</v>
       </c>
-      <c r="L116" s="19">
+      <c r="L116" s="18">
         <v>81.347058950796153</v>
       </c>
-      <c r="M116" s="19">
+      <c r="M116" s="18">
         <v>80.39594562198441</v>
       </c>
-      <c r="N116" s="19">
+      <c r="N116" s="18">
         <v>80.810504737188026</v>
       </c>
-      <c r="O116" s="19">
+      <c r="O116" s="18">
         <v>81.159331439447229</v>
       </c>
-      <c r="P116" s="19">
+      <c r="P116" s="18">
         <v>80.96507345223516</v>
       </c>
-      <c r="Q116" s="19">
+      <c r="Q116" s="18">
         <v>80.651793924061593</v>
       </c>
-      <c r="R116" s="19">
+      <c r="R116" s="18">
         <v>80.513837890454639</v>
       </c>
-      <c r="S116" s="19">
+      <c r="S116" s="18">
         <v>81.447274526014056</v>
       </c>
-      <c r="T116" s="19">
+      <c r="T116" s="18">
         <v>81.594789063270426</v>
       </c>
-      <c r="U116" s="19">
+      <c r="U116" s="18">
         <v>81.690217265447671</v>
       </c>
-      <c r="V116" s="19">
+      <c r="V116" s="18">
         <v>80.724652948227089</v>
       </c>
-      <c r="W116" s="19">
+      <c r="W116" s="18">
         <v>81.445539751842304</v>
       </c>
-      <c r="X116" s="9"/>
+      <c r="X116" s="18">
+        <v>83.1064060789151</v>
+      </c>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -29421,77 +29504,79 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="19">
+      <c r="B117" s="18">
         <v>7.2516503435153732</v>
       </c>
-      <c r="C117" s="19">
+      <c r="C117" s="18">
         <v>4.7050665794890287</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D117" s="18">
         <v>4.38868955835318</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E117" s="18">
         <v>3.7785416721432554</v>
       </c>
-      <c r="F117" s="19">
+      <c r="F117" s="18">
         <v>4.1216212176880296</v>
       </c>
-      <c r="G117" s="19">
+      <c r="G117" s="18">
         <v>3.9570971804371204</v>
       </c>
-      <c r="H117" s="19">
+      <c r="H117" s="18">
         <v>3.5884958291038909</v>
       </c>
-      <c r="I117" s="19">
+      <c r="I117" s="18">
         <v>3.4606345334293742</v>
       </c>
-      <c r="J117" s="19">
+      <c r="J117" s="18">
         <v>3.5195110811569785</v>
       </c>
-      <c r="K117" s="19">
+      <c r="K117" s="18">
         <v>3.6269687987810877</v>
       </c>
-      <c r="L117" s="19">
+      <c r="L117" s="18">
         <v>3.2062811975137135</v>
       </c>
-      <c r="M117" s="19">
+      <c r="M117" s="18">
         <v>3.2202285396387644</v>
       </c>
-      <c r="N117" s="19">
+      <c r="N117" s="18">
         <v>3.004736162881863</v>
       </c>
-      <c r="O117" s="19">
+      <c r="O117" s="18">
         <v>2.6379165711151193</v>
       </c>
-      <c r="P117" s="19">
+      <c r="P117" s="18">
         <v>2.5900024839156326</v>
       </c>
-      <c r="Q117" s="19">
+      <c r="Q117" s="18">
         <v>2.3431647286186013</v>
       </c>
-      <c r="R117" s="19">
+      <c r="R117" s="18">
         <v>2.1856024882044021</v>
       </c>
-      <c r="S117" s="19">
+      <c r="S117" s="18">
         <v>1.9569502573610824</v>
       </c>
-      <c r="T117" s="19">
+      <c r="T117" s="18">
         <v>1.9021254663966976</v>
       </c>
-      <c r="U117" s="19">
+      <c r="U117" s="18">
         <v>1.8952053469462609</v>
       </c>
-      <c r="V117" s="19">
+      <c r="V117" s="18">
         <v>1.9757338470104908</v>
       </c>
-      <c r="W117" s="19">
+      <c r="W117" s="18">
         <v>1.8429335825255202</v>
       </c>
-      <c r="X117" s="9"/>
+      <c r="X117" s="18">
+        <v>1.723596682109686</v>
+      </c>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -29565,77 +29650,79 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="19">
+      <c r="B118" s="18">
         <v>8.8300104230770611</v>
       </c>
-      <c r="C118" s="19">
+      <c r="C118" s="18">
         <v>9.0221197084695373</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="18">
         <v>9.5404311081982911</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118" s="18">
         <v>10.730049866563924</v>
       </c>
-      <c r="F118" s="19">
+      <c r="F118" s="18">
         <v>11.901598071515879</v>
       </c>
-      <c r="G118" s="19">
+      <c r="G118" s="18">
         <v>12.737071805800815</v>
       </c>
-      <c r="H118" s="19">
+      <c r="H118" s="18">
         <v>12.194587095076404</v>
       </c>
-      <c r="I118" s="19">
+      <c r="I118" s="18">
         <v>12.242683944892301</v>
       </c>
-      <c r="J118" s="19">
+      <c r="J118" s="18">
         <v>14.102340987268205</v>
       </c>
-      <c r="K118" s="19">
+      <c r="K118" s="18">
         <v>15.042087860969581</v>
       </c>
-      <c r="L118" s="19">
+      <c r="L118" s="18">
         <v>13.978422877440433</v>
       </c>
-      <c r="M118" s="19">
+      <c r="M118" s="18">
         <v>14.890655501901955</v>
       </c>
-      <c r="N118" s="19">
+      <c r="N118" s="18">
         <v>14.873952071200462</v>
       </c>
-      <c r="O118" s="19">
+      <c r="O118" s="18">
         <v>14.909153481522496</v>
       </c>
-      <c r="P118" s="19">
+      <c r="P118" s="18">
         <v>15.188967737846234</v>
       </c>
-      <c r="Q118" s="19">
+      <c r="Q118" s="18">
         <v>15.77223305704806</v>
       </c>
-      <c r="R118" s="19">
+      <c r="R118" s="18">
         <v>16.020018550423163</v>
       </c>
-      <c r="S118" s="19">
+      <c r="S118" s="18">
         <v>15.410635228123851</v>
       </c>
-      <c r="T118" s="19">
+      <c r="T118" s="18">
         <v>15.309106119791169</v>
       </c>
-      <c r="U118" s="19">
+      <c r="U118" s="18">
         <v>15.234789564236367</v>
       </c>
-      <c r="V118" s="19">
+      <c r="V118" s="18">
         <v>16.027190400175428</v>
       </c>
-      <c r="W118" s="19">
+      <c r="W118" s="18">
         <v>15.396512858041969</v>
       </c>
-      <c r="X118" s="9"/>
+      <c r="X118" s="18">
+        <v>13.882957727258106</v>
+      </c>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -29709,77 +29796,79 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="19">
+      <c r="B119" s="18">
         <v>2.4415271528644129</v>
       </c>
-      <c r="C119" s="19">
+      <c r="C119" s="18">
         <v>2.1633961162611177</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D119" s="18">
         <v>2.2480591818864708</v>
       </c>
-      <c r="E119" s="19">
+      <c r="E119" s="18">
         <v>2.3521654860327921</v>
       </c>
-      <c r="F119" s="19">
+      <c r="F119" s="18">
         <v>2.1804948289000841</v>
       </c>
-      <c r="G119" s="19">
+      <c r="G119" s="18">
         <v>2.0622164314540674</v>
       </c>
-      <c r="H119" s="19">
+      <c r="H119" s="18">
         <v>2.0100065313945916</v>
       </c>
-      <c r="I119" s="19">
+      <c r="I119" s="18">
         <v>1.8252725827857936</v>
       </c>
-      <c r="J119" s="19">
+      <c r="J119" s="18">
         <v>1.6306972784056739</v>
       </c>
-      <c r="K119" s="19">
+      <c r="K119" s="18">
         <v>1.5245196259051188</v>
       </c>
-      <c r="L119" s="19">
+      <c r="L119" s="18">
         <v>1.4682369742496979</v>
       </c>
-      <c r="M119" s="19">
+      <c r="M119" s="18">
         <v>1.4931703364748778</v>
       </c>
-      <c r="N119" s="19">
+      <c r="N119" s="18">
         <v>1.3108070287296476</v>
       </c>
-      <c r="O119" s="19">
+      <c r="O119" s="18">
         <v>1.2935985079151562</v>
       </c>
-      <c r="P119" s="19">
+      <c r="P119" s="18">
         <v>1.2559563260029811</v>
       </c>
-      <c r="Q119" s="19">
+      <c r="Q119" s="18">
         <v>1.2328082902717399</v>
       </c>
-      <c r="R119" s="19">
+      <c r="R119" s="18">
         <v>1.2805410709177873</v>
       </c>
-      <c r="S119" s="19">
+      <c r="S119" s="18">
         <v>1.1851399885010108</v>
       </c>
-      <c r="T119" s="19">
+      <c r="T119" s="18">
         <v>1.1939793505417213</v>
       </c>
-      <c r="U119" s="19">
+      <c r="U119" s="18">
         <v>1.1797878233696875</v>
       </c>
-      <c r="V119" s="19">
+      <c r="V119" s="18">
         <v>1.2724228045869956</v>
       </c>
-      <c r="W119" s="19">
+      <c r="W119" s="18">
         <v>1.3150138075902178</v>
       </c>
-      <c r="X119" s="9"/>
+      <c r="X119" s="18">
+        <v>1.2870395117170985</v>
+      </c>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
@@ -29853,8 +29942,8 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
+    <row r="120" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -29951,77 +30040,79 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="19">
+      <c r="B121" s="18">
         <v>100</v>
       </c>
-      <c r="C121" s="19">
+      <c r="C121" s="18">
         <v>100</v>
       </c>
-      <c r="D121" s="19">
+      <c r="D121" s="18">
         <v>100</v>
       </c>
-      <c r="E121" s="19">
+      <c r="E121" s="18">
         <v>100</v>
       </c>
-      <c r="F121" s="19">
+      <c r="F121" s="18">
         <v>100</v>
       </c>
-      <c r="G121" s="19">
+      <c r="G121" s="18">
         <v>100</v>
       </c>
-      <c r="H121" s="19">
+      <c r="H121" s="18">
         <v>100</v>
       </c>
-      <c r="I121" s="19">
+      <c r="I121" s="18">
         <v>100</v>
       </c>
-      <c r="J121" s="19">
+      <c r="J121" s="18">
         <v>100</v>
       </c>
-      <c r="K121" s="19">
+      <c r="K121" s="18">
         <v>100</v>
       </c>
-      <c r="L121" s="19">
+      <c r="L121" s="18">
         <v>100</v>
       </c>
-      <c r="M121" s="19">
+      <c r="M121" s="18">
         <v>100</v>
       </c>
-      <c r="N121" s="19">
+      <c r="N121" s="18">
         <v>100</v>
       </c>
-      <c r="O121" s="19">
+      <c r="O121" s="18">
         <v>100</v>
       </c>
-      <c r="P121" s="19">
+      <c r="P121" s="18">
         <v>100</v>
       </c>
-      <c r="Q121" s="19">
+      <c r="Q121" s="18">
         <v>100</v>
       </c>
-      <c r="R121" s="19">
+      <c r="R121" s="18">
         <v>100</v>
       </c>
-      <c r="S121" s="19">
+      <c r="S121" s="18">
         <v>100</v>
       </c>
-      <c r="T121" s="19">
+      <c r="T121" s="18">
         <v>100</v>
       </c>
-      <c r="U121" s="19">
+      <c r="U121" s="18">
         <v>100</v>
       </c>
-      <c r="V121" s="19">
+      <c r="V121" s="18">
         <v>100</v>
       </c>
-      <c r="W121" s="19">
+      <c r="W121" s="18">
         <v>100</v>
       </c>
-      <c r="X121" s="9"/>
+      <c r="X121" s="18">
+        <v>100</v>
+      </c>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
@@ -30095,38 +30186,39 @@
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
     </row>
-    <row r="122" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="14"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="14"/>
-      <c r="Q122" s="14"/>
-      <c r="R122" s="14"/>
-      <c r="S122" s="14"/>
-      <c r="T122" s="14"/>
-      <c r="U122" s="14"/>
-      <c r="V122" s="14"/>
-      <c r="W122" s="14"/>
+    <row r="122" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="13"/>
+      <c r="N122" s="13"/>
+      <c r="O122" s="13"/>
+      <c r="P122" s="13"/>
+      <c r="Q122" s="13"/>
+      <c r="R122" s="13"/>
+      <c r="S122" s="13"/>
+      <c r="T122" s="13"/>
+      <c r="U122" s="13"/>
+      <c r="V122" s="13"/>
+      <c r="W122" s="13"/>
+      <c r="X122" s="13"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A123" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+    <row r="124" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -30223,8 +30315,8 @@
       <c r="CQ124" s="9"/>
       <c r="CR124" s="9"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -30321,37 +30413,37 @@
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
         <v>7</v>
@@ -30377,152 +30469,158 @@
       <c r="U134" s="5"/>
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
     </row>
-    <row r="135" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B135" s="15">
         <v>2000</v>
       </c>
-      <c r="C135" s="16">
+      <c r="C135" s="15">
         <v>2001</v>
       </c>
-      <c r="D135" s="16">
+      <c r="D135" s="15">
         <v>2002</v>
       </c>
-      <c r="E135" s="16">
+      <c r="E135" s="15">
         <v>2003</v>
       </c>
-      <c r="F135" s="16">
+      <c r="F135" s="15">
         <v>2004</v>
       </c>
-      <c r="G135" s="16">
+      <c r="G135" s="15">
         <v>2005</v>
       </c>
-      <c r="H135" s="16">
+      <c r="H135" s="15">
         <v>2006</v>
       </c>
-      <c r="I135" s="16">
+      <c r="I135" s="15">
         <v>2007</v>
       </c>
-      <c r="J135" s="16">
+      <c r="J135" s="15">
         <v>2008</v>
       </c>
-      <c r="K135" s="16">
+      <c r="K135" s="15">
         <v>2009</v>
       </c>
-      <c r="L135" s="16">
+      <c r="L135" s="15">
         <v>2010</v>
       </c>
-      <c r="M135" s="16">
+      <c r="M135" s="15">
         <v>2011</v>
       </c>
-      <c r="N135" s="16">
+      <c r="N135" s="15">
         <v>2012</v>
       </c>
-      <c r="O135" s="16">
+      <c r="O135" s="15">
         <v>2013</v>
       </c>
-      <c r="P135" s="16">
+      <c r="P135" s="15">
         <v>2014</v>
       </c>
-      <c r="Q135" s="16">
+      <c r="Q135" s="15">
         <v>2015</v>
       </c>
-      <c r="R135" s="16">
+      <c r="R135" s="15">
         <v>2016</v>
       </c>
-      <c r="S135" s="16">
+      <c r="S135" s="15">
         <v>2017</v>
       </c>
-      <c r="T135" s="16">
+      <c r="T135" s="15">
         <v>2018</v>
       </c>
-      <c r="U135" s="16">
+      <c r="U135" s="15">
         <v>2019</v>
       </c>
-      <c r="V135" s="16">
+      <c r="V135" s="15">
         <v>2020</v>
       </c>
-      <c r="W135" s="16">
+      <c r="W135" s="15">
         <v>2021</v>
       </c>
+      <c r="X135" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="136" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B137" s="19">
+      <c r="B137" s="18">
         <v>78.287938258295469</v>
       </c>
-      <c r="C137" s="19">
+      <c r="C137" s="18">
         <v>78.749596223393752</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D137" s="18">
         <v>80.110363070469248</v>
       </c>
-      <c r="E137" s="19">
+      <c r="E137" s="18">
         <v>80.215587143906902</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F137" s="18">
         <v>78.973102677621782</v>
       </c>
-      <c r="G137" s="19">
+      <c r="G137" s="18">
         <v>79.841757743312883</v>
       </c>
-      <c r="H137" s="19">
+      <c r="H137" s="18">
         <v>79.622354961196962</v>
       </c>
-      <c r="I137" s="19">
+      <c r="I137" s="18">
         <v>79.866519865654183</v>
       </c>
-      <c r="J137" s="19">
+      <c r="J137" s="18">
         <v>79.790534373187739</v>
       </c>
-      <c r="K137" s="19">
+      <c r="K137" s="18">
         <v>78.571327977670308</v>
       </c>
-      <c r="L137" s="19">
+      <c r="L137" s="18">
         <v>79.582981637721176</v>
       </c>
-      <c r="M137" s="19">
+      <c r="M137" s="18">
         <v>79.648803694443387</v>
       </c>
-      <c r="N137" s="19">
+      <c r="N137" s="18">
         <v>79.510812377596267</v>
       </c>
-      <c r="O137" s="19">
+      <c r="O137" s="18">
         <v>80.04545663904004</v>
       </c>
-      <c r="P137" s="19">
+      <c r="P137" s="18">
         <v>79.624283210678385</v>
       </c>
-      <c r="Q137" s="19">
+      <c r="Q137" s="18">
         <v>80.321796552790829</v>
       </c>
-      <c r="R137" s="19">
+      <c r="R137" s="18">
         <v>80.831685456972295</v>
       </c>
-      <c r="S137" s="19">
+      <c r="S137" s="18">
         <v>81.305123048054668</v>
       </c>
-      <c r="T137" s="19">
+      <c r="T137" s="18">
         <v>81.59478906327044</v>
       </c>
-      <c r="U137" s="19">
+      <c r="U137" s="18">
         <v>81.780345259105658</v>
       </c>
-      <c r="V137" s="19">
+      <c r="V137" s="18">
         <v>81.073328719027558</v>
       </c>
-      <c r="W137" s="19">
+      <c r="W137" s="18">
         <v>81.58184869153196</v>
       </c>
-      <c r="X137" s="9"/>
+      <c r="X137" s="18">
+        <v>81.44320236083253</v>
+      </c>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -30596,77 +30694,79 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="19">
+      <c r="B138" s="18">
         <v>3.7390620228483074</v>
       </c>
-      <c r="C138" s="19">
+      <c r="C138" s="18">
         <v>3.3192186415122693</v>
       </c>
-      <c r="D138" s="19">
+      <c r="D138" s="18">
         <v>3.2363962651908067</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="18">
         <v>2.7554923650093719</v>
       </c>
-      <c r="F138" s="19">
+      <c r="F138" s="18">
         <v>2.8027639399703568</v>
       </c>
-      <c r="G138" s="19">
+      <c r="G138" s="18">
         <v>2.6726664736843952</v>
       </c>
-      <c r="H138" s="19">
+      <c r="H138" s="18">
         <v>2.7447819894318446</v>
       </c>
-      <c r="I138" s="19">
+      <c r="I138" s="18">
         <v>2.5396299214399747</v>
       </c>
-      <c r="J138" s="19">
+      <c r="J138" s="18">
         <v>2.5113769283522465</v>
       </c>
-      <c r="K138" s="19">
+      <c r="K138" s="18">
         <v>2.4498382391385221</v>
       </c>
-      <c r="L138" s="19">
+      <c r="L138" s="18">
         <v>2.340284024782906</v>
       </c>
-      <c r="M138" s="19">
+      <c r="M138" s="18">
         <v>2.3324548769683906</v>
       </c>
-      <c r="N138" s="19">
+      <c r="N138" s="18">
         <v>2.3576500570656314</v>
       </c>
-      <c r="O138" s="19">
+      <c r="O138" s="18">
         <v>2.1619699439637117</v>
       </c>
-      <c r="P138" s="19">
+      <c r="P138" s="18">
         <v>2.3173184512367997</v>
       </c>
-      <c r="Q138" s="19">
+      <c r="Q138" s="18">
         <v>2.2329640583785593</v>
       </c>
-      <c r="R138" s="19">
+      <c r="R138" s="18">
         <v>2.1691576531593793</v>
       </c>
-      <c r="S138" s="19">
+      <c r="S138" s="18">
         <v>1.9969581565782959</v>
       </c>
-      <c r="T138" s="19">
+      <c r="T138" s="18">
         <v>1.9021254663966967</v>
       </c>
-      <c r="U138" s="19">
+      <c r="U138" s="18">
         <v>1.8981356970771628</v>
       </c>
-      <c r="V138" s="19">
+      <c r="V138" s="18">
         <v>1.9617426726553311</v>
       </c>
-      <c r="W138" s="19">
+      <c r="W138" s="18">
         <v>1.8532834308949067</v>
       </c>
-      <c r="X138" s="9"/>
+      <c r="X138" s="18">
+        <v>1.7998043698418378</v>
+      </c>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -30740,77 +30840,79 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="19">
+      <c r="B139" s="18">
         <v>15.510134947134055</v>
       </c>
-      <c r="C139" s="19">
+      <c r="C139" s="18">
         <v>15.656209818050662</v>
       </c>
-      <c r="D139" s="19">
+      <c r="D139" s="18">
         <v>14.385881767160299</v>
       </c>
-      <c r="E139" s="19">
+      <c r="E139" s="18">
         <v>14.771504207269754</v>
       </c>
-      <c r="F139" s="19">
+      <c r="F139" s="18">
         <v>16.20620010338023</v>
       </c>
-      <c r="G139" s="19">
+      <c r="G139" s="18">
         <v>15.479173379016654</v>
       </c>
-      <c r="H139" s="19">
+      <c r="H139" s="18">
         <v>15.502799091056199</v>
       </c>
-      <c r="I139" s="19">
+      <c r="I139" s="18">
         <v>15.564908396632903</v>
       </c>
-      <c r="J139" s="19">
+      <c r="J139" s="18">
         <v>15.838175364862661</v>
       </c>
-      <c r="K139" s="19">
+      <c r="K139" s="18">
         <v>17.195465608249172</v>
       </c>
-      <c r="L139" s="19">
+      <c r="L139" s="18">
         <v>16.246372237441946</v>
       </c>
-      <c r="M139" s="19">
+      <c r="M139" s="18">
         <v>16.155785319548418</v>
       </c>
-      <c r="N139" s="19">
+      <c r="N139" s="18">
         <v>16.43443857418616</v>
       </c>
-      <c r="O139" s="19">
+      <c r="O139" s="18">
         <v>16.206260105135136</v>
       </c>
-      <c r="P139" s="19">
+      <c r="P139" s="18">
         <v>16.575865435698585</v>
       </c>
-      <c r="Q139" s="19">
+      <c r="Q139" s="18">
         <v>16.081785303818041</v>
       </c>
-      <c r="R139" s="19">
+      <c r="R139" s="18">
         <v>15.711160901070881</v>
       </c>
-      <c r="S139" s="19">
+      <c r="S139" s="18">
         <v>15.468569868605597</v>
       </c>
-      <c r="T139" s="19">
+      <c r="T139" s="18">
         <v>15.309106119791164</v>
       </c>
-      <c r="U139" s="19">
+      <c r="U139" s="18">
         <v>15.140055446473747</v>
       </c>
-      <c r="V139" s="19">
+      <c r="V139" s="18">
         <v>15.757885349815057</v>
       </c>
-      <c r="W139" s="19">
+      <c r="W139" s="18">
         <v>15.308515029866083</v>
       </c>
-      <c r="X139" s="9"/>
+      <c r="X139" s="18">
+        <v>15.433765707265016</v>
+      </c>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -30884,77 +30986,79 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="19">
+      <c r="B140" s="18">
         <v>2.4628647717221708</v>
       </c>
-      <c r="C140" s="19">
+      <c r="C140" s="18">
         <v>2.274975317043316</v>
       </c>
-      <c r="D140" s="19">
+      <c r="D140" s="18">
         <v>2.2673588971796566</v>
       </c>
-      <c r="E140" s="19">
+      <c r="E140" s="18">
         <v>2.2574162838139671</v>
       </c>
-      <c r="F140" s="19">
+      <c r="F140" s="18">
         <v>2.017933279027635</v>
       </c>
-      <c r="G140" s="19">
+      <c r="G140" s="18">
         <v>2.0064024039860651</v>
       </c>
-      <c r="H140" s="19">
+      <c r="H140" s="18">
         <v>2.1300639583149952</v>
       </c>
-      <c r="I140" s="19">
+      <c r="I140" s="18">
         <v>2.0289418162729338</v>
       </c>
-      <c r="J140" s="19">
+      <c r="J140" s="18">
         <v>1.8599133335973441</v>
       </c>
-      <c r="K140" s="19">
+      <c r="K140" s="18">
         <v>1.7833681749420274</v>
       </c>
-      <c r="L140" s="19">
+      <c r="L140" s="18">
         <v>1.8303621000539672</v>
       </c>
-      <c r="M140" s="19">
+      <c r="M140" s="18">
         <v>1.8629561090398059</v>
       </c>
-      <c r="N140" s="19">
+      <c r="N140" s="18">
         <v>1.6970989911519574</v>
       </c>
-      <c r="O140" s="19">
+      <c r="O140" s="18">
         <v>1.586313311861099</v>
       </c>
-      <c r="P140" s="19">
+      <c r="P140" s="18">
         <v>1.4825329023862373</v>
       </c>
-      <c r="Q140" s="19">
+      <c r="Q140" s="18">
         <v>1.3634540850125598</v>
       </c>
-      <c r="R140" s="19">
+      <c r="R140" s="18">
         <v>1.2879959887974444</v>
       </c>
-      <c r="S140" s="19">
+      <c r="S140" s="18">
         <v>1.2293489267614472</v>
       </c>
-      <c r="T140" s="19">
+      <c r="T140" s="18">
         <v>1.1939793505417207</v>
       </c>
-      <c r="U140" s="19">
+      <c r="U140" s="18">
         <v>1.1814635973434442</v>
       </c>
-      <c r="V140" s="19">
+      <c r="V140" s="18">
         <v>1.2070432585020616</v>
       </c>
-      <c r="W140" s="19">
+      <c r="W140" s="18">
         <v>1.2563528477070387</v>
       </c>
-      <c r="X140" s="9"/>
+      <c r="X140" s="18">
+        <v>1.3232275620606306</v>
+      </c>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -31028,8 +31132,8 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
+    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -31126,77 +31230,79 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
+    <row r="142" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="19">
+      <c r="B142" s="18">
         <v>100</v>
       </c>
-      <c r="C142" s="19">
+      <c r="C142" s="18">
         <v>100</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="18">
         <v>100</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E142" s="18">
         <v>100</v>
       </c>
-      <c r="F142" s="19">
+      <c r="F142" s="18">
         <v>100</v>
       </c>
-      <c r="G142" s="19">
+      <c r="G142" s="18">
         <v>100</v>
       </c>
-      <c r="H142" s="19">
+      <c r="H142" s="18">
         <v>100</v>
       </c>
-      <c r="I142" s="19">
+      <c r="I142" s="18">
         <v>100</v>
       </c>
-      <c r="J142" s="19">
+      <c r="J142" s="18">
         <v>100</v>
       </c>
-      <c r="K142" s="19">
+      <c r="K142" s="18">
         <v>100</v>
       </c>
-      <c r="L142" s="19">
+      <c r="L142" s="18">
         <v>100</v>
       </c>
-      <c r="M142" s="19">
+      <c r="M142" s="18">
         <v>100</v>
       </c>
-      <c r="N142" s="19">
+      <c r="N142" s="18">
         <v>100</v>
       </c>
-      <c r="O142" s="19">
+      <c r="O142" s="18">
         <v>100</v>
       </c>
-      <c r="P142" s="19">
+      <c r="P142" s="18">
         <v>100</v>
       </c>
-      <c r="Q142" s="19">
+      <c r="Q142" s="18">
         <v>100</v>
       </c>
-      <c r="R142" s="19">
+      <c r="R142" s="18">
         <v>100</v>
       </c>
-      <c r="S142" s="19">
+      <c r="S142" s="18">
         <v>100</v>
       </c>
-      <c r="T142" s="19">
+      <c r="T142" s="18">
         <v>100</v>
       </c>
-      <c r="U142" s="19">
+      <c r="U142" s="18">
         <v>100</v>
       </c>
-      <c r="V142" s="19">
+      <c r="V142" s="18">
         <v>100</v>
       </c>
-      <c r="W142" s="19">
+      <c r="W142" s="18">
         <v>100</v>
       </c>
-      <c r="X142" s="9"/>
+      <c r="X142" s="18">
+        <v>100</v>
+      </c>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
@@ -31270,33 +31376,34 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="K143" s="14"/>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14"/>
-      <c r="N143" s="14"/>
-      <c r="O143" s="14"/>
-      <c r="P143" s="14"/>
-      <c r="Q143" s="14"/>
-      <c r="R143" s="14"/>
-      <c r="S143" s="14"/>
-      <c r="T143" s="14"/>
-      <c r="U143" s="14"/>
-      <c r="V143" s="14"/>
-      <c r="W143" s="14"/>
+    <row r="143" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="13"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
+      <c r="M143" s="13"/>
+      <c r="N143" s="13"/>
+      <c r="O143" s="13"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="13"/>
+      <c r="R143" s="13"/>
+      <c r="S143" s="13"/>
+      <c r="T143" s="13"/>
+      <c r="U143" s="13"/>
+      <c r="V143" s="13"/>
+      <c r="W143" s="13"/>
+      <c r="X143" s="13"/>
     </row>
-    <row r="144" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
+    <row r="144" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A144" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -31306,9 +31413,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="22" man="1"/>
-    <brk id="84" max="22" man="1"/>
-    <brk id="104" max="22" man="1"/>
+    <brk id="42" max="23" man="1"/>
+    <brk id="84" max="23" man="1"/>
+    <brk id="104" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07A4B8-52D2-4126-A434-CC378A403794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D338C7-3195-4034-84CE-AF638822AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="1" r:id="rId1"/>
@@ -614,13 +614,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23560,10 +23560,10 @@
   </sheetPr>
   <dimension ref="A1:CR144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A83" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
+      <selection pane="topRight" activeCell="V83" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23585,7 +23585,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23595,7 +23595,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23776,10 +23776,10 @@
         <v>493269.07905887556</v>
       </c>
       <c r="W12" s="8">
-        <v>530109.78710024862</v>
+        <v>530190.68083645625</v>
       </c>
       <c r="X12" s="8">
-        <v>619610.70478705817</v>
+        <v>619787.42802714789</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -24071,7 +24071,7 @@
         <v>100212.26672610085</v>
       </c>
       <c r="X14" s="8">
-        <v>103506.21122693151</v>
+        <v>104044.04351253496</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24214,10 +24214,10 @@
         <v>7775.1566847203585</v>
       </c>
       <c r="W15" s="8">
-        <v>8559.1143689334967</v>
+        <v>8562.3760644075974</v>
       </c>
       <c r="X15" s="8">
-        <v>9595.6917952459371</v>
+        <v>9460.0968178835756</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24458,10 +24458,10 @@
         <v>611051.34682367055</v>
       </c>
       <c r="W17" s="12">
-        <v>650876.38772540342</v>
+        <v>650960.54315708519</v>
       </c>
       <c r="X17" s="12">
-        <v>745563.10881581903</v>
+        <v>746142.06936414971</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -24775,7 +24775,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
@@ -24785,7 +24785,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
@@ -24966,10 +24966,10 @@
         <v>477694.62141923222</v>
       </c>
       <c r="W33" s="8">
-        <v>502140.70149459713</v>
+        <v>502223.71739882301</v>
       </c>
       <c r="X33" s="8">
-        <v>526837.93615831994</v>
+        <v>526810.38310236146</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -25261,7 +25261,7 @@
         <v>94224.739929624033</v>
       </c>
       <c r="X35" s="8">
-        <v>99837.592784501554</v>
+        <v>100364.7967491655</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -25404,10 +25404,10 @@
         <v>7112.0562275797329</v>
       </c>
       <c r="W36" s="8">
-        <v>7732.9198883161589</v>
+        <v>7735.8657539768956</v>
       </c>
       <c r="X36" s="8">
-        <v>8559.6643753670505</v>
+        <v>8439.0213789772442</v>
       </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -25648,10 +25648,10 @@
         <v>589213.0358613478</v>
       </c>
       <c r="W38" s="12">
-        <v>615505.42130178318</v>
+        <v>615591.38307166973</v>
       </c>
       <c r="X38" s="12">
-        <v>646877.72691473342</v>
+        <v>647256.73482704908</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -25965,7 +25965,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
@@ -25975,7 +25975,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
@@ -26154,10 +26154,10 @@
         <v>-0.66668554769559307</v>
       </c>
       <c r="V54" s="18">
-        <v>7.4686838493227157</v>
+        <v>7.4850833642410066</v>
       </c>
       <c r="W54" s="18">
-        <v>16.883468267278772</v>
+        <v>16.898966811211992</v>
       </c>
       <c r="X54" s="18"/>
       <c r="Y54" s="9"/>
@@ -26435,7 +26435,7 @@
         <v>2.3259496082361579</v>
       </c>
       <c r="W56" s="18">
-        <v>3.286967362821585</v>
+        <v>3.8236604276271891</v>
       </c>
       <c r="X56" s="18"/>
       <c r="Y56" s="9"/>
@@ -26571,10 +26571,10 @@
         <v>8.4142390489016776</v>
       </c>
       <c r="V57" s="18">
-        <v>10.082853838222476</v>
+        <v>10.124804060016857</v>
       </c>
       <c r="W57" s="18">
-        <v>12.110802375475231</v>
+        <v>10.484481722400133</v>
       </c>
       <c r="X57" s="18"/>
       <c r="Y57" s="9"/>
@@ -26803,10 +26803,10 @@
         <v>0.52146082944534555</v>
       </c>
       <c r="V59" s="18">
-        <v>6.5174622572634888</v>
+        <v>6.5312344929551642</v>
       </c>
       <c r="W59" s="18">
-        <v>14.547573529486016</v>
+        <v>14.621704373270433</v>
       </c>
       <c r="X59" s="18"/>
       <c r="Y59" s="9"/>
@@ -27106,7 +27106,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.2">
@@ -27116,7 +27116,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.2">
@@ -27292,10 +27292,10 @@
         <v>-1.2164289300620368</v>
       </c>
       <c r="V75" s="18">
-        <v>5.1175121048538301</v>
+        <v>5.1348905513557384</v>
       </c>
       <c r="W75" s="18">
-        <v>4.9183893259822753</v>
+        <v>4.8955604547871019</v>
       </c>
       <c r="X75" s="18"/>
       <c r="Y75" s="9"/>
@@ -27573,7 +27573,7 @@
         <v>1.4833194808854699</v>
       </c>
       <c r="W77" s="18">
-        <v>5.9568780546061788</v>
+        <v>6.5163956134317118</v>
       </c>
       <c r="X77" s="18"/>
       <c r="Y77" s="9"/>
@@ -27709,10 +27709,10 @@
         <v>1.8024305435085921</v>
       </c>
       <c r="V78" s="18">
-        <v>8.7297349861885039</v>
+        <v>8.7711557169374004</v>
       </c>
       <c r="W78" s="18">
-        <v>10.691233052860639</v>
+        <v>9.0895530941558462</v>
       </c>
       <c r="X78" s="18"/>
       <c r="Y78" s="9"/>
@@ -27941,10 +27941,10 @@
         <v>-0.35496660036696426</v>
       </c>
       <c r="V80" s="18">
-        <v>4.4622884831459118</v>
+        <v>4.4768777343427928</v>
       </c>
       <c r="W80" s="18">
-        <v>5.096999072176871</v>
+        <v>5.1438913256673686</v>
       </c>
       <c r="X80" s="18"/>
       <c r="Y80" s="9"/>
@@ -28241,7 +28241,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.2">
@@ -28251,7 +28251,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.2">
@@ -28432,10 +28432,10 @@
         <v>103.26033765952222</v>
       </c>
       <c r="W95" s="18">
-        <v>105.56996983562632</v>
+        <v>105.56862658388239</v>
       </c>
       <c r="X95" s="18">
-        <v>117.60935617226681</v>
+        <v>117.64905322807971</v>
       </c>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
@@ -28727,7 +28727,7 @@
         <v>106.35451665979537</v>
       </c>
       <c r="X97" s="18">
-        <v>103.67458623561632</v>
+        <v>103.66587377500971</v>
       </c>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
@@ -28870,10 +28870,10 @@
         <v>109.32361100534047</v>
       </c>
       <c r="W98" s="18">
-        <v>110.68412052044732</v>
+        <v>110.68413461034798</v>
       </c>
       <c r="X98" s="18">
-        <v>112.10359862777284</v>
+        <v>112.09945315993592</v>
       </c>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
@@ -29114,10 +29114,10 @@
         <v>103.70635230946617</v>
       </c>
       <c r="W100" s="18">
-        <v>105.74665392041736</v>
+        <v>105.74555802079797</v>
       </c>
       <c r="X100" s="18">
-        <v>115.2556469012719</v>
+        <v>115.27760612078039</v>
       </c>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
@@ -29235,7 +29235,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
@@ -29245,7 +29245,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.2">
@@ -29426,10 +29426,10 @@
         <v>80.724652948227089</v>
       </c>
       <c r="W116" s="18">
-        <v>81.445539751842304</v>
+        <v>81.447437392302035</v>
       </c>
       <c r="X116" s="18">
-        <v>83.1064060789151</v>
+        <v>83.065605529429646</v>
       </c>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -29572,10 +29572,10 @@
         <v>1.9757338470104908</v>
       </c>
       <c r="W117" s="18">
-        <v>1.8429335825255202</v>
+        <v>1.8426953301877582</v>
       </c>
       <c r="X117" s="18">
-        <v>1.723596682109686</v>
+        <v>1.7222592766461049</v>
       </c>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -29718,10 +29718,10 @@
         <v>16.027190400175428</v>
       </c>
       <c r="W118" s="18">
-        <v>15.396512858041969</v>
+        <v>15.394522414535706</v>
       </c>
       <c r="X118" s="18">
-        <v>13.882957727258106</v>
+        <v>13.94426715561014</v>
       </c>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -29864,10 +29864,10 @@
         <v>1.2724228045869956</v>
       </c>
       <c r="W119" s="18">
-        <v>1.3150138075902178</v>
+        <v>1.3153448629744962</v>
       </c>
       <c r="X119" s="18">
-        <v>1.2870395117170985</v>
+        <v>1.2678680383141132</v>
       </c>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -30425,7 +30425,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
@@ -30435,7 +30435,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.2">
@@ -30616,10 +30616,10 @@
         <v>81.073328719027558</v>
       </c>
       <c r="W137" s="18">
-        <v>81.58184869153196</v>
+        <v>81.583942077427039</v>
       </c>
       <c r="X137" s="18">
-        <v>81.44320236083253</v>
+        <v>81.391255549179945</v>
       </c>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -30762,10 +30762,10 @@
         <v>1.9617426726553311</v>
       </c>
       <c r="W138" s="18">
-        <v>1.8532834308949067</v>
+        <v>1.8530246366229235</v>
       </c>
       <c r="X138" s="18">
-        <v>1.7998043698418378</v>
+        <v>1.7987504756757575</v>
       </c>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -30908,10 +30908,10 @@
         <v>15.757885349815057</v>
       </c>
       <c r="W139" s="18">
-        <v>15.308515029866083</v>
+        <v>15.306377334176233</v>
       </c>
       <c r="X139" s="18">
-        <v>15.433765707265016</v>
+        <v>15.506180368441216</v>
       </c>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -31054,10 +31054,10 @@
         <v>1.2070432585020616</v>
       </c>
       <c r="W140" s="18">
-        <v>1.2563528477070387</v>
+        <v>1.2566559517738172</v>
       </c>
       <c r="X140" s="18">
-        <v>1.3232275620606306</v>
+        <v>1.3038136067030963</v>
       </c>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>

--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D338C7-3195-4034-84CE-AF638822AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945641C5-1B9B-4400-AEDE-821D94E87D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$X$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$Y$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,13 +614,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23560,17 +23563,17 @@
   </sheetPr>
   <dimension ref="A1:CR144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A83" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V83" sqref="V1:X1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="24" width="10.77734375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="10.77734375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23585,7 +23588,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23595,7 +23598,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23630,6 +23633,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23703,6 +23707,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23781,7 +23788,9 @@
       <c r="X12" s="8">
         <v>619787.42802714789</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>701441.74180128681</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23927,7 +23936,9 @@
       <c r="X13" s="8">
         <v>12850.501006583283</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="8">
+        <v>14262.760551033189</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24073,7 +24084,9 @@
       <c r="X14" s="8">
         <v>104044.04351253496</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="8">
+        <v>121535.95092834164</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24219,7 +24232,9 @@
       <c r="X15" s="8">
         <v>9460.0968178835756</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="8">
+        <v>10276.342612260612</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24317,7 +24332,7 @@
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="10"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -24463,7 +24478,9 @@
       <c r="X17" s="12">
         <v>746142.06936414971</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="12">
+        <v>847516.79589292221</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -24561,6 +24578,7 @@
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
     </row>
     <row r="19" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -24775,7 +24793,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
@@ -24785,7 +24803,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
@@ -24820,6 +24838,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -24893,6 +24912,9 @@
       </c>
       <c r="X31" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24971,7 +24993,9 @@
       <c r="X33" s="8">
         <v>526810.38310236146</v>
       </c>
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="8">
+        <v>560365.49879875267</v>
+      </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -25117,7 +25141,9 @@
       <c r="X34" s="8">
         <v>11642.533596544921</v>
       </c>
-      <c r="Y34" s="9"/>
+      <c r="Y34" s="8">
+        <v>12191.260582407533</v>
+      </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -25263,7 +25289,9 @@
       <c r="X35" s="8">
         <v>100364.7967491655</v>
       </c>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="8">
+        <v>106337.3320404722</v>
+      </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -25409,7 +25437,9 @@
       <c r="X36" s="8">
         <v>8439.0213789772442</v>
       </c>
-      <c r="Y36" s="9"/>
+      <c r="Y36" s="8">
+        <v>8847.2960643626684</v>
+      </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -25507,7 +25537,7 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="10"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -25653,7 +25683,9 @@
       <c r="X38" s="12">
         <v>647256.73482704908</v>
       </c>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="12">
+        <v>687741.38748599507</v>
+      </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -25751,6 +25783,7 @@
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
     </row>
     <row r="40" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -25965,7 +25998,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
@@ -25975,7 +26008,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
@@ -26013,6 +26046,7 @@
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
       <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -26084,7 +26118,10 @@
       <c r="W52" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="X52" s="17"/>
+      <c r="X52" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y52" s="17"/>
     </row>
     <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -26159,8 +26196,10 @@
       <c r="W54" s="18">
         <v>16.898966811211992</v>
       </c>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="9"/>
+      <c r="X54" s="18">
+        <v>13.174567614908497</v>
+      </c>
+      <c r="Y54" s="18"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
@@ -26298,8 +26337,10 @@
       <c r="W55" s="18">
         <v>7.1301861071834765</v>
       </c>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="9"/>
+      <c r="X55" s="18">
+        <v>10.989918165263816</v>
+      </c>
+      <c r="Y55" s="18"/>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
@@ -26437,8 +26478,10 @@
       <c r="W56" s="18">
         <v>3.8236604276271891</v>
       </c>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="9"/>
+      <c r="X56" s="18">
+        <v>16.812021933479841</v>
+      </c>
+      <c r="Y56" s="18"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
@@ -26576,8 +26619,10 @@
       <c r="W57" s="18">
         <v>10.484481722400133</v>
       </c>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="9"/>
+      <c r="X57" s="18">
+        <v>8.6283027551471605</v>
+      </c>
+      <c r="Y57" s="18"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
@@ -26808,8 +26853,10 @@
       <c r="W59" s="18">
         <v>14.621704373270433</v>
       </c>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="9"/>
+      <c r="X59" s="18">
+        <v>13.586517995850627</v>
+      </c>
+      <c r="Y59" s="18"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
@@ -26902,6 +26949,7 @@
       <c r="V60" s="13"/>
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
     </row>
     <row r="61" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -26933,7 +26981,7 @@
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>
       <c r="X62" s="19"/>
-      <c r="Y62" s="9"/>
+      <c r="Y62" s="19"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -27106,7 +27154,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.2">
@@ -27116,7 +27164,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.2">
@@ -27151,6 +27199,7 @@
       <c r="V72" s="16"/>
       <c r="W72" s="16"/>
       <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
@@ -27222,7 +27271,10 @@
       <c r="W73" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="X73" s="6"/>
+      <c r="X73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y73" s="6"/>
     </row>
     <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -27297,8 +27349,10 @@
       <c r="W75" s="18">
         <v>4.8955604547871019</v>
       </c>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="9"/>
+      <c r="X75" s="18">
+        <v>6.3694863982723291</v>
+      </c>
+      <c r="Y75" s="18"/>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
@@ -27436,8 +27490,10 @@
       <c r="W76" s="18">
         <v>2.0642795560037399</v>
       </c>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="9"/>
+      <c r="X76" s="18">
+        <v>4.7131234907963062</v>
+      </c>
+      <c r="Y76" s="18"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
@@ -27575,8 +27631,10 @@
       <c r="W77" s="18">
         <v>6.5163956134317118</v>
       </c>
-      <c r="X77" s="18"/>
-      <c r="Y77" s="9"/>
+      <c r="X77" s="18">
+        <v>5.9508268683425172</v>
+      </c>
+      <c r="Y77" s="18"/>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
@@ -27714,8 +27772,10 @@
       <c r="W78" s="18">
         <v>9.0895530941558462</v>
       </c>
-      <c r="X78" s="18"/>
-      <c r="Y78" s="9"/>
+      <c r="X78" s="18">
+        <v>4.837938749657539</v>
+      </c>
+      <c r="Y78" s="18"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
@@ -27946,8 +28006,10 @@
       <c r="W80" s="18">
         <v>5.1438913256673686</v>
       </c>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="9"/>
+      <c r="X80" s="18">
+        <v>6.2548059341188207</v>
+      </c>
+      <c r="Y80" s="18"/>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
@@ -28040,6 +28102,7 @@
       <c r="V81" s="13"/>
       <c r="W81" s="13"/>
       <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -28165,7 +28228,7 @@
       <c r="V84" s="19"/>
       <c r="W84" s="19"/>
       <c r="X84" s="19"/>
-      <c r="Y84" s="9"/>
+      <c r="Y84" s="19"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
@@ -28241,7 +28304,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.2">
@@ -28251,7 +28314,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.2">
@@ -28286,6 +28349,7 @@
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
     </row>
     <row r="93" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
@@ -28359,6 +28423,9 @@
       </c>
       <c r="X93" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y93" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28437,7 +28504,9 @@
       <c r="X95" s="18">
         <v>117.64905322807971</v>
       </c>
-      <c r="Y95" s="9"/>
+      <c r="Y95" s="18">
+        <v>125.17575462889083</v>
+      </c>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
@@ -28583,7 +28652,9 @@
       <c r="X96" s="18">
         <v>110.37546853544697</v>
       </c>
-      <c r="Y96" s="9"/>
+      <c r="Y96" s="18">
+        <v>116.99167985642856</v>
+      </c>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
@@ -28729,7 +28800,9 @@
       <c r="X97" s="18">
         <v>103.66587377500971</v>
       </c>
-      <c r="Y97" s="9"/>
+      <c r="Y97" s="18">
+        <v>114.29283450715579</v>
+      </c>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
@@ -28875,7 +28948,9 @@
       <c r="X98" s="18">
         <v>112.09945315993592</v>
       </c>
-      <c r="Y98" s="9"/>
+      <c r="Y98" s="18">
+        <v>116.15235364004842</v>
+      </c>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
@@ -28973,7 +29048,7 @@
       <c r="V99" s="18"/>
       <c r="W99" s="18"/>
       <c r="X99" s="18"/>
-      <c r="Y99" s="9"/>
+      <c r="Y99" s="18"/>
       <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
@@ -29119,7 +29194,9 @@
       <c r="X100" s="18">
         <v>115.27760612078039</v>
       </c>
-      <c r="Y100" s="9"/>
+      <c r="Y100" s="18">
+        <v>123.23190247295983</v>
+      </c>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
@@ -29217,6 +29294,7 @@
       <c r="V101" s="13"/>
       <c r="W101" s="13"/>
       <c r="X101" s="13"/>
+      <c r="Y101" s="13"/>
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -29235,7 +29313,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
@@ -29245,7 +29323,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.2">
@@ -29280,6 +29358,7 @@
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
@@ -29353,6 +29432,9 @@
       </c>
       <c r="X114" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y114" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29431,7 +29513,9 @@
       <c r="X116" s="18">
         <v>83.065605529429646</v>
       </c>
-      <c r="Y116" s="9"/>
+      <c r="Y116" s="18">
+        <v>82.764346995892339</v>
+      </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -29577,7 +29661,9 @@
       <c r="X117" s="18">
         <v>1.7222592766461049</v>
       </c>
-      <c r="Y117" s="9"/>
+      <c r="Y117" s="18">
+        <v>1.6828882471888129</v>
+      </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -29723,7 +29809,9 @@
       <c r="X118" s="18">
         <v>13.94426715561014</v>
       </c>
-      <c r="Y118" s="9"/>
+      <c r="Y118" s="18">
+        <v>14.340240986055555</v>
+      </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -29869,7 +29957,9 @@
       <c r="X119" s="18">
         <v>1.2678680383141132</v>
       </c>
-      <c r="Y119" s="9"/>
+      <c r="Y119" s="18">
+        <v>1.2125237708632921</v>
+      </c>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
@@ -30113,7 +30203,9 @@
       <c r="X121" s="18">
         <v>100</v>
       </c>
-      <c r="Y121" s="9"/>
+      <c r="Y121" s="18">
+        <v>100</v>
+      </c>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
@@ -30211,6 +30303,7 @@
       <c r="V122" s="13"/>
       <c r="W122" s="13"/>
       <c r="X122" s="13"/>
+      <c r="Y122" s="13"/>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -30425,7 +30518,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
@@ -30435,7 +30528,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.2">
@@ -30470,6 +30563,7 @@
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
     </row>
     <row r="135" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
@@ -30543,6 +30637,9 @@
       </c>
       <c r="X135" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y135" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30621,7 +30718,9 @@
       <c r="X137" s="18">
         <v>81.391255549179945</v>
       </c>
-      <c r="Y137" s="9"/>
+      <c r="Y137" s="18">
+        <v>81.479100864809269</v>
+      </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -30767,7 +30866,9 @@
       <c r="X138" s="18">
         <v>1.7987504756757575</v>
       </c>
-      <c r="Y138" s="9"/>
+      <c r="Y138" s="18">
+        <v>1.7726518723807052</v>
+      </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -30913,7 +31014,9 @@
       <c r="X139" s="18">
         <v>15.506180368441216</v>
       </c>
-      <c r="Y139" s="9"/>
+      <c r="Y139" s="18">
+        <v>15.461819511718367</v>
+      </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -31059,7 +31162,9 @@
       <c r="X140" s="18">
         <v>1.3038136067030963</v>
       </c>
-      <c r="Y140" s="9"/>
+      <c r="Y140" s="18">
+        <v>1.2864277510916604</v>
+      </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
@@ -31303,7 +31408,9 @@
       <c r="X142" s="18">
         <v>100</v>
       </c>
-      <c r="Y142" s="9"/>
+      <c r="Y142" s="18">
+        <v>100</v>
+      </c>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
@@ -31401,6 +31508,7 @@
       <c r="V143" s="13"/>
       <c r="W143" s="13"/>
       <c r="X143" s="13"/>
+      <c r="Y143" s="13"/>
     </row>
     <row r="144" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -31413,9 +31521,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="23" man="1"/>
-    <brk id="84" max="23" man="1"/>
-    <brk id="104" max="23" man="1"/>
+    <brk id="42" max="24" man="1"/>
+    <brk id="84" max="24" man="1"/>
+    <brk id="104" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945641C5-1B9B-4400-AEDE-821D94E87D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B810456A-E677-4095-B28D-94AD32646967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="1" r:id="rId1"/>
@@ -617,13 +617,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23569,44 +23569,44 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.77734375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
+    <col min="2" max="25" width="10.81640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>7</v>
@@ -23635,7 +23635,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -23712,10 +23712,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -23786,10 +23786,10 @@
         <v>530190.68083645625</v>
       </c>
       <c r="X12" s="8">
-        <v>619787.42802714789</v>
+        <v>619763.92043209937</v>
       </c>
       <c r="Y12" s="8">
-        <v>701441.74180128681</v>
+        <v>698212.55135209323</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23863,7 +23863,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -24011,7 +24011,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -24082,10 +24082,10 @@
         <v>100212.26672610085</v>
       </c>
       <c r="X14" s="8">
-        <v>104044.04351253496</v>
+        <v>104044.56830134388</v>
       </c>
       <c r="Y14" s="8">
-        <v>121535.95092834164</v>
+        <v>121647.19734366552</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24159,7 +24159,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -24230,10 +24230,10 @@
         <v>8562.3760644075974</v>
       </c>
       <c r="X15" s="8">
-        <v>9460.0968178835756</v>
+        <v>9445.1805395926694</v>
       </c>
       <c r="Y15" s="8">
-        <v>10276.342612260612</v>
+        <v>10237.723484281127</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24307,7 +24307,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -24405,7 +24405,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
@@ -24476,10 +24476,10 @@
         <v>650960.54315708519</v>
       </c>
       <c r="X17" s="12">
-        <v>746142.06936414971</v>
+        <v>746104.17027961928</v>
       </c>
       <c r="Y17" s="12">
-        <v>847516.79589292221</v>
+        <v>844360.23273107305</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -24553,7 +24553,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -24580,12 +24580,12 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -24683,7 +24683,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -24781,37 +24781,37 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -24840,7 +24840,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -24917,10 +24917,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -24991,10 +24991,10 @@
         <v>502223.71739882301</v>
       </c>
       <c r="X33" s="8">
-        <v>526810.38310236146</v>
+        <v>526788.51726886677</v>
       </c>
       <c r="Y33" s="8">
-        <v>560365.49879875267</v>
+        <v>557477.48004116863</v>
       </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -25068,7 +25068,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -25216,7 +25216,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -25287,10 +25287,10 @@
         <v>94224.739929624033</v>
       </c>
       <c r="X35" s="8">
-        <v>100364.7967491655</v>
+        <v>100365.31545581468</v>
       </c>
       <c r="Y35" s="8">
-        <v>106337.3320404722</v>
+        <v>106435.84069105686</v>
       </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -25364,7 +25364,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -25435,10 +25435,10 @@
         <v>7735.8657539768956</v>
       </c>
       <c r="X36" s="8">
-        <v>8439.0213789772442</v>
+        <v>8425.6342599601303</v>
       </c>
       <c r="Y36" s="8">
-        <v>8847.2960643626684</v>
+        <v>8813.8318991565575</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -25512,7 +25512,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -25610,7 +25610,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>1</v>
       </c>
@@ -25681,10 +25681,10 @@
         <v>615591.38307166973</v>
       </c>
       <c r="X38" s="12">
-        <v>647256.73482704908</v>
+        <v>647222.0005811865</v>
       </c>
       <c r="Y38" s="12">
-        <v>687741.38748599507</v>
+        <v>684918.4132137897</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -25758,7 +25758,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -25785,12 +25785,12 @@
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -25888,7 +25888,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -25986,40 +25986,40 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:91" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:91" ht="15" x14ac:dyDescent="0.25">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="16" t="s">
         <v>7</v>
@@ -26048,7 +26048,7 @@
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
@@ -26123,10 +26123,10 @@
       </c>
       <c r="Y52" s="17"/>
     </row>
-    <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -26194,10 +26194,10 @@
         <v>7.4850833642410066</v>
       </c>
       <c r="W54" s="18">
-        <v>16.898966811211992</v>
+        <v>16.894533011090985</v>
       </c>
       <c r="X54" s="18">
-        <v>13.174567614908497</v>
+        <v>12.657824751285858</v>
       </c>
       <c r="Y54" s="18"/>
       <c r="Z54" s="9"/>
@@ -26267,7 +26267,7 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -26408,7 +26408,7 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -26476,10 +26476,10 @@
         <v>2.3259496082361579</v>
       </c>
       <c r="W56" s="18">
-        <v>3.8236604276271891</v>
+        <v>3.8241841048436243</v>
       </c>
       <c r="X56" s="18">
-        <v>16.812021933479841</v>
+        <v>16.918354633698158</v>
       </c>
       <c r="Y56" s="18"/>
       <c r="Z56" s="9"/>
@@ -26549,7 +26549,7 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -26617,10 +26617,10 @@
         <v>10.124804060016857</v>
       </c>
       <c r="W57" s="18">
-        <v>10.484481722400133</v>
+        <v>10.310274490917863</v>
       </c>
       <c r="X57" s="18">
-        <v>8.6283027551471605</v>
+        <v>8.3909771906025981</v>
       </c>
       <c r="Y57" s="18"/>
       <c r="Z57" s="9"/>
@@ -26690,7 +26690,7 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -26783,7 +26783,7 @@
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
     </row>
-    <row r="59" spans="1:91" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>1</v>
       </c>
@@ -26851,10 +26851,10 @@
         <v>6.5312344929551642</v>
       </c>
       <c r="W59" s="18">
-        <v>14.621704373270433</v>
+        <v>14.615882348429011</v>
       </c>
       <c r="X59" s="18">
-        <v>13.586517995850627</v>
+        <v>13.169215019215088</v>
       </c>
       <c r="Y59" s="18"/>
       <c r="Z59" s="9"/>
@@ -26924,7 +26924,7 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -26951,12 +26951,12 @@
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -27049,7 +27049,7 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -27142,37 +27142,37 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="16" t="s">
         <v>7</v>
@@ -27201,7 +27201,7 @@
       <c r="X72" s="16"/>
       <c r="Y72" s="16"/>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -27276,10 +27276,10 @@
       </c>
       <c r="Y73" s="6"/>
     </row>
-    <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -27347,10 +27347,10 @@
         <v>5.1348905513557384</v>
       </c>
       <c r="W75" s="18">
-        <v>4.8955604547871019</v>
+        <v>4.8912066513450867</v>
       </c>
       <c r="X75" s="18">
-        <v>6.3694863982723291</v>
+        <v>5.8256704097136947</v>
       </c>
       <c r="Y75" s="18"/>
       <c r="Z75" s="9"/>
@@ -27420,7 +27420,7 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -27561,7 +27561,7 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -27629,10 +27629,10 @@
         <v>1.4833194808854699</v>
       </c>
       <c r="W77" s="18">
-        <v>6.5163956134317118</v>
+        <v>6.5169461128542281</v>
       </c>
       <c r="X77" s="18">
-        <v>5.9508268683425172</v>
+        <v>6.0484293878542985</v>
       </c>
       <c r="Y77" s="18"/>
       <c r="Z77" s="9"/>
@@ -27702,7 +27702,7 @@
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
     </row>
-    <row r="78" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -27770,10 +27770,10 @@
         <v>8.7711557169374004</v>
       </c>
       <c r="W78" s="18">
-        <v>9.0895530941558462</v>
+        <v>8.9165004657511702</v>
       </c>
       <c r="X78" s="18">
-        <v>4.837938749657539</v>
+        <v>4.6073402573525044</v>
       </c>
       <c r="Y78" s="18"/>
       <c r="Z78" s="9"/>
@@ -27843,7 +27843,7 @@
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
     </row>
-    <row r="79" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -27936,7 +27936,7 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:91" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:91" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>1</v>
       </c>
@@ -28004,10 +28004,10 @@
         <v>4.4768777343427928</v>
       </c>
       <c r="W80" s="18">
-        <v>5.1438913256673686</v>
+        <v>5.1382489065533719</v>
       </c>
       <c r="X80" s="18">
-        <v>6.2548059341188207</v>
+        <v>5.8243404270486678</v>
       </c>
       <c r="Y80" s="18"/>
       <c r="Z80" s="9"/>
@@ -28077,7 +28077,7 @@
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -28104,12 +28104,12 @@
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -28203,7 +28203,7 @@
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -28297,32 +28297,32 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
         <v>7</v>
@@ -28351,7 +28351,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
@@ -28428,10 +28428,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -28502,10 +28502,10 @@
         <v>105.56862658388239</v>
       </c>
       <c r="X95" s="18">
-        <v>117.64905322807971</v>
+        <v>117.64947414671514</v>
       </c>
       <c r="Y95" s="18">
-        <v>125.17575462889083</v>
+        <v>125.24497873896748</v>
       </c>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
@@ -28579,7 +28579,7 @@
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
     </row>
-    <row r="96" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
@@ -28727,7 +28727,7 @@
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -28798,10 +28798,10 @@
         <v>106.35451665979537</v>
       </c>
       <c r="X97" s="18">
-        <v>103.66587377500971</v>
+        <v>103.66586088911261</v>
       </c>
       <c r="Y97" s="18">
-        <v>114.29283450715579</v>
+        <v>114.29157373479248</v>
       </c>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
@@ -28875,7 +28875,7 @@
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
     </row>
-    <row r="98" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -28946,10 +28946,10 @@
         <v>110.68413461034798</v>
       </c>
       <c r="X98" s="18">
-        <v>112.09945315993592</v>
+        <v>112.1005285557857</v>
       </c>
       <c r="Y98" s="18">
-        <v>116.15235364004842</v>
+        <v>116.15519335308436</v>
       </c>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
@@ -29023,7 +29023,7 @@
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
     </row>
-    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -29121,7 +29121,7 @@
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>1</v>
       </c>
@@ -29192,10 +29192,10 @@
         <v>105.74555802079797</v>
       </c>
       <c r="X100" s="18">
-        <v>115.27760612078039</v>
+        <v>115.27793703082396</v>
       </c>
       <c r="Y100" s="18">
-        <v>123.23190247295983</v>
+        <v>123.27895066642272</v>
       </c>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
@@ -29269,7 +29269,7 @@
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
     </row>
-    <row r="101" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -29296,42 +29296,42 @@
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
         <v>7</v>
@@ -29360,7 +29360,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
@@ -29437,10 +29437,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -29511,10 +29511,10 @@
         <v>81.447437392302035</v>
       </c>
       <c r="X116" s="18">
-        <v>83.065605529429646</v>
+        <v>83.066674215187533</v>
       </c>
       <c r="Y116" s="18">
-        <v>82.764346995892339</v>
+        <v>82.691311632919167</v>
       </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -29588,7 +29588,7 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>4</v>
       </c>
@@ -29659,10 +29659,10 @@
         <v>1.8426953301877582</v>
       </c>
       <c r="X117" s="18">
-        <v>1.7222592766461049</v>
+        <v>1.7223467604754534</v>
       </c>
       <c r="Y117" s="18">
-        <v>1.6828882471888129</v>
+        <v>1.6891795703002805</v>
       </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -29736,7 +29736,7 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
@@ -29807,10 +29807,10 @@
         <v>15.394522414535706</v>
       </c>
       <c r="X118" s="18">
-        <v>13.94426715561014</v>
+        <v>13.945045805380078</v>
       </c>
       <c r="Y118" s="18">
-        <v>14.340240986055555</v>
+        <v>14.407025891093797</v>
       </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -29884,7 +29884,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -29955,10 +29955,10 @@
         <v>1.3153448629744962</v>
       </c>
       <c r="X119" s="18">
-        <v>1.2678680383141132</v>
+        <v>1.2659332189569288</v>
       </c>
       <c r="Y119" s="18">
-        <v>1.2125237708632921</v>
+        <v>1.212482905686751</v>
       </c>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
@@ -30032,7 +30032,7 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -30130,7 +30130,7 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>1</v>
       </c>
@@ -30278,7 +30278,7 @@
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
     </row>
-    <row r="122" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -30305,12 +30305,12 @@
       <c r="X122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -30408,7 +30408,7 @@
       <c r="CQ124" s="9"/>
       <c r="CR124" s="9"/>
     </row>
-    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -30506,37 +30506,37 @@
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
         <v>7</v>
@@ -30565,7 +30565,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
     </row>
-    <row r="135" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
@@ -30642,10 +30642,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
@@ -30716,10 +30716,10 @@
         <v>81.583942077427039</v>
       </c>
       <c r="X137" s="18">
-        <v>81.391255549179945</v>
+        <v>81.392245133173162</v>
       </c>
       <c r="Y137" s="18">
-        <v>81.479100864809269</v>
+        <v>81.393268057338418</v>
       </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -30793,7 +30793,7 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>4</v>
       </c>
@@ -30864,10 +30864,10 @@
         <v>1.8530246366229235</v>
       </c>
       <c r="X138" s="18">
-        <v>1.7987504756757575</v>
+        <v>1.7988470086137778</v>
       </c>
       <c r="Y138" s="18">
-        <v>1.7726518723807052</v>
+        <v>1.779958071969977</v>
       </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -30941,7 +30941,7 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -31012,10 +31012,10 @@
         <v>15.306377334176233</v>
       </c>
       <c r="X139" s="18">
-        <v>15.506180368441216</v>
+        <v>15.507092676962394</v>
       </c>
       <c r="Y139" s="18">
-        <v>15.461819511718367</v>
+        <v>15.539929813192815</v>
       </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -31089,7 +31089,7 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
@@ -31160,10 +31160,10 @@
         <v>1.2566559517738172</v>
       </c>
       <c r="X140" s="18">
-        <v>1.3038136067030963</v>
+        <v>1.3018151812506615</v>
       </c>
       <c r="Y140" s="18">
-        <v>1.2864277510916604</v>
+        <v>1.286844057498775</v>
       </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -31237,7 +31237,7 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -31335,7 +31335,7 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>1</v>
       </c>
@@ -31483,7 +31483,7 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -31510,7 +31510,7 @@
       <c r="X143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B810456A-E677-4095-B28D-94AD32646967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAC6A6D-4473-40EC-8F1E-7E7A2C36E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$Y$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$Z$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -617,13 +617,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -745,10 +749,11 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8D9D9E53-BD5A-4BA5-9366-B4B6D2324480}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23569,44 +23574,44 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.81640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
+    <col min="2" max="26" width="10.77734375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>7</v>
@@ -23634,8 +23639,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -23711,11 +23717,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -23791,7 +23800,9 @@
       <c r="Y12" s="8">
         <v>698212.55135209323</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>733586.12326217524</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -23863,7 +23874,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -23939,7 +23950,9 @@
       <c r="Y13" s="8">
         <v>14262.760551033189</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="8">
+        <v>13933.724434594877</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -24011,7 +24024,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -24087,7 +24100,9 @@
       <c r="Y14" s="8">
         <v>121647.19734366552</v>
       </c>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="8">
+        <v>138413.30735432584</v>
+      </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -24159,7 +24174,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -24235,7 +24250,9 @@
       <c r="Y15" s="8">
         <v>10237.723484281127</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="8">
+        <v>11300.253588145304</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -24307,7 +24324,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -24333,7 +24350,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="10"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -24405,7 +24422,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
@@ -24481,7 +24498,9 @@
       <c r="Y17" s="12">
         <v>844360.23273107305</v>
       </c>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="12">
+        <v>897233.40863924113</v>
+      </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -24553,7 +24572,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -24579,13 +24598,14 @@
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -24683,7 +24703,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -24781,37 +24801,37 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -24839,8 +24859,9 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -24916,11 +24937,14 @@
       <c r="Y31" s="15">
         <v>2023</v>
       </c>
+      <c r="Z31" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="32" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -24996,7 +25020,9 @@
       <c r="Y33" s="8">
         <v>557477.48004116863</v>
       </c>
-      <c r="Z33" s="9"/>
+      <c r="Z33" s="8">
+        <v>600892.94915744534</v>
+      </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
@@ -25068,7 +25094,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -25144,7 +25170,9 @@
       <c r="Y34" s="8">
         <v>12191.260582407533</v>
       </c>
-      <c r="Z34" s="9"/>
+      <c r="Z34" s="8">
+        <v>11729.686374174897</v>
+      </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -25216,7 +25244,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -25292,7 +25320,9 @@
       <c r="Y35" s="8">
         <v>106435.84069105686</v>
       </c>
-      <c r="Z35" s="9"/>
+      <c r="Z35" s="8">
+        <v>112676.88599972607</v>
+      </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -25364,7 +25394,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -25440,7 +25470,9 @@
       <c r="Y36" s="8">
         <v>8813.8318991565575</v>
       </c>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="8">
+        <v>9519.9618973301131</v>
+      </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -25512,7 +25544,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -25538,7 +25570,7 @@
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
-      <c r="Z37" s="9"/>
+      <c r="Z37" s="10"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -25610,7 +25642,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>1</v>
       </c>
@@ -25686,7 +25718,9 @@
       <c r="Y38" s="12">
         <v>684918.4132137897</v>
       </c>
-      <c r="Z38" s="9"/>
+      <c r="Z38" s="12">
+        <v>734819.48342867638</v>
+      </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -25758,7 +25792,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -25784,13 +25818,14 @@
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -25888,7 +25923,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -25986,40 +26021,40 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:91" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" ht="15" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="16" t="s">
         <v>7</v>
@@ -26047,8 +26082,9 @@
       <c r="W51" s="16"/>
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
@@ -26121,12 +26157,15 @@
       <c r="X52" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Y52" s="17"/>
+      <c r="Y52" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z52" s="17"/>
     </row>
-    <row r="53" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -26199,8 +26238,10 @@
       <c r="X54" s="18">
         <v>12.657824751285858</v>
       </c>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="9"/>
+      <c r="Y54" s="18">
+        <v>5.0663042137499446</v>
+      </c>
+      <c r="Z54" s="18"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
@@ -26267,7 +26308,7 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -26340,8 +26381,10 @@
       <c r="X55" s="18">
         <v>10.989918165263816</v>
       </c>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="9"/>
+      <c r="Y55" s="18">
+        <v>-2.3069595486862227</v>
+      </c>
+      <c r="Z55" s="18"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
@@ -26408,7 +26451,7 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -26481,8 +26524,10 @@
       <c r="X56" s="18">
         <v>16.918354633698158</v>
       </c>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="9"/>
+      <c r="Y56" s="18">
+        <v>13.782569904421521</v>
+      </c>
+      <c r="Z56" s="18"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
@@ -26549,7 +26594,7 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -26622,8 +26667,10 @@
       <c r="X57" s="18">
         <v>8.3909771906025981</v>
       </c>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="9"/>
+      <c r="Y57" s="18">
+        <v>10.378577869343445</v>
+      </c>
+      <c r="Z57" s="18"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
@@ -26690,7 +26737,7 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -26783,7 +26830,7 @@
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
     </row>
-    <row r="59" spans="1:91" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>1</v>
       </c>
@@ -26856,8 +26903,10 @@
       <c r="X59" s="18">
         <v>13.169215019215088</v>
       </c>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="9"/>
+      <c r="Y59" s="18">
+        <v>6.2619216133794424</v>
+      </c>
+      <c r="Z59" s="18"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
@@ -26924,7 +26973,7 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -26950,13 +26999,14 @@
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -26982,7 +27032,7 @@
       <c r="W62" s="19"/>
       <c r="X62" s="19"/>
       <c r="Y62" s="19"/>
-      <c r="Z62" s="9"/>
+      <c r="Z62" s="19"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -27049,7 +27099,7 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -27142,37 +27192,37 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="16" t="s">
         <v>7</v>
@@ -27200,8 +27250,9 @@
       <c r="W72" s="16"/>
       <c r="X72" s="16"/>
       <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -27274,12 +27325,15 @@
       <c r="X73" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Y73" s="6"/>
+      <c r="Y73" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z73" s="6"/>
     </row>
-    <row r="74" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -27352,8 +27406,10 @@
       <c r="X75" s="18">
         <v>5.8256704097136947</v>
       </c>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="9"/>
+      <c r="Y75" s="18">
+        <v>7.7878426789671522</v>
+      </c>
+      <c r="Z75" s="18"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
@@ -27420,7 +27476,7 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -27493,8 +27549,10 @@
       <c r="X76" s="18">
         <v>4.7131234907963062</v>
       </c>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="9"/>
+      <c r="Y76" s="18">
+        <v>-3.7861073111562007</v>
+      </c>
+      <c r="Z76" s="18"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
@@ -27561,7 +27619,7 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -27634,8 +27692,10 @@
       <c r="X77" s="18">
         <v>6.0484293878542985</v>
       </c>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="9"/>
+      <c r="Y77" s="18">
+        <v>5.8636689184281607</v>
+      </c>
+      <c r="Z77" s="18"/>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
@@ -27702,7 +27762,7 @@
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
     </row>
-    <row r="78" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -27775,8 +27835,10 @@
       <c r="X78" s="18">
         <v>4.6073402573525044</v>
       </c>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="9"/>
+      <c r="Y78" s="18">
+        <v>8.0116118193850383</v>
+      </c>
+      <c r="Z78" s="18"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
@@ -27843,7 +27905,7 @@
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
     </row>
-    <row r="79" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -27936,7 +27998,7 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:91" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:91" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>1</v>
       </c>
@@ -28009,8 +28071,10 @@
       <c r="X80" s="18">
         <v>5.8243404270486678</v>
       </c>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="9"/>
+      <c r="Y80" s="18">
+        <v>7.2856955298865103</v>
+      </c>
+      <c r="Z80" s="18"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
@@ -28077,7 +28141,7 @@
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -28103,13 +28167,14 @@
       <c r="W81" s="13"/>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
+      <c r="Z81" s="13"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -28203,7 +28268,7 @@
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -28229,7 +28294,7 @@
       <c r="W84" s="19"/>
       <c r="X84" s="19"/>
       <c r="Y84" s="19"/>
-      <c r="Z84" s="9"/>
+      <c r="Z84" s="19"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
@@ -28297,32 +28362,32 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
         <v>7</v>
@@ -28350,8 +28415,9 @@
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
@@ -28427,11 +28493,14 @@
       <c r="Y93" s="15">
         <v>2023</v>
       </c>
+      <c r="Z93" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="94" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -28507,7 +28576,9 @@
       <c r="Y95" s="18">
         <v>125.24497873896748</v>
       </c>
-      <c r="Z95" s="9"/>
+      <c r="Z95" s="18">
+        <v>122.0826645229884</v>
+      </c>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
@@ -28579,7 +28650,7 @@
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
     </row>
-    <row r="96" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
@@ -28655,7 +28726,9 @@
       <c r="Y96" s="18">
         <v>116.99167985642856</v>
       </c>
-      <c r="Z96" s="9"/>
+      <c r="Z96" s="18">
+        <v>118.7902556821347</v>
+      </c>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
@@ -28727,7 +28800,7 @@
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -28803,7 +28876,9 @@
       <c r="Y97" s="18">
         <v>114.29157373479248</v>
       </c>
-      <c r="Z97" s="9"/>
+      <c r="Z97" s="18">
+        <v>122.84090576896341</v>
+      </c>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
@@ -28875,7 +28950,7 @@
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
     </row>
-    <row r="98" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -28951,7 +29026,9 @@
       <c r="Y98" s="18">
         <v>116.15519335308436</v>
       </c>
-      <c r="Z98" s="9"/>
+      <c r="Z98" s="18">
+        <v>118.70061781775067</v>
+      </c>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
@@ -29023,7 +29100,7 @@
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
     </row>
-    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -29049,7 +29126,7 @@
       <c r="W99" s="18"/>
       <c r="X99" s="18"/>
       <c r="Y99" s="18"/>
-      <c r="Z99" s="9"/>
+      <c r="Z99" s="18"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
@@ -29121,7 +29198,7 @@
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>1</v>
       </c>
@@ -29197,7 +29274,9 @@
       <c r="Y100" s="18">
         <v>123.27895066642272</v>
       </c>
-      <c r="Z100" s="9"/>
+      <c r="Z100" s="18">
+        <v>122.10256108789324</v>
+      </c>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
@@ -29269,7 +29348,7 @@
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
     </row>
-    <row r="101" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -29295,43 +29374,44 @@
       <c r="W101" s="13"/>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
+      <c r="Z101" s="13"/>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
         <v>7</v>
@@ -29359,8 +29439,9 @@
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
@@ -29436,11 +29517,14 @@
       <c r="Y114" s="15">
         <v>2023</v>
       </c>
+      <c r="Z114" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="115" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -29516,7 +29600,9 @@
       <c r="Y116" s="18">
         <v>82.691311632919167</v>
       </c>
-      <c r="Z116" s="9"/>
+      <c r="Z116" s="18">
+        <v>81.760901477659417</v>
+      </c>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
@@ -29588,7 +29674,7 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>4</v>
       </c>
@@ -29664,7 +29750,9 @@
       <c r="Y117" s="18">
         <v>1.6891795703002805</v>
       </c>
-      <c r="Z117" s="9"/>
+      <c r="Z117" s="18">
+        <v>1.5529654045904278</v>
+      </c>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
@@ -29736,7 +29824,7 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
@@ -29812,7 +29900,9 @@
       <c r="Y118" s="18">
         <v>14.407025891093797</v>
       </c>
-      <c r="Z118" s="9"/>
+      <c r="Z118" s="18">
+        <v>15.426677832276189</v>
+      </c>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
@@ -29884,7 +29974,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -29960,7 +30050,9 @@
       <c r="Y119" s="18">
         <v>1.212482905686751</v>
       </c>
-      <c r="Z119" s="9"/>
+      <c r="Z119" s="18">
+        <v>1.2594552854739831</v>
+      </c>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
@@ -30032,7 +30124,7 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -30130,7 +30222,7 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>1</v>
       </c>
@@ -30206,7 +30298,9 @@
       <c r="Y121" s="18">
         <v>100</v>
       </c>
-      <c r="Z121" s="9"/>
+      <c r="Z121" s="18">
+        <v>100</v>
+      </c>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
@@ -30278,7 +30372,7 @@
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
     </row>
-    <row r="122" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -30304,13 +30398,14 @@
       <c r="W122" s="13"/>
       <c r="X122" s="13"/>
       <c r="Y122" s="13"/>
+      <c r="Z122" s="13"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -30408,7 +30503,7 @@
       <c r="CQ124" s="9"/>
       <c r="CR124" s="9"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -30506,37 +30601,37 @@
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
         <v>7</v>
@@ -30564,8 +30659,9 @@
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
@@ -30641,11 +30737,14 @@
       <c r="Y135" s="15">
         <v>2023</v>
       </c>
+      <c r="Z135" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="136" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
@@ -30721,7 +30820,9 @@
       <c r="Y137" s="18">
         <v>81.393268057338418</v>
       </c>
-      <c r="Z137" s="9"/>
+      <c r="Z137" s="18">
+        <v>81.774226556115764</v>
+      </c>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
@@ -30793,7 +30894,7 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>4</v>
       </c>
@@ -30869,7 +30970,9 @@
       <c r="Y138" s="18">
         <v>1.779958071969977</v>
       </c>
-      <c r="Z138" s="9"/>
+      <c r="Z138" s="18">
+        <v>1.5962677417648266</v>
+      </c>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
@@ -30941,7 +31044,7 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -31017,7 +31120,9 @@
       <c r="Y139" s="18">
         <v>15.539929813192815</v>
       </c>
-      <c r="Z139" s="9"/>
+      <c r="Z139" s="18">
+        <v>15.333954602560942</v>
+      </c>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
@@ -31089,7 +31194,7 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
@@ -31165,7 +31270,9 @@
       <c r="Y140" s="18">
         <v>1.286844057498775</v>
       </c>
-      <c r="Z140" s="9"/>
+      <c r="Z140" s="18">
+        <v>1.2955510995584736</v>
+      </c>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
@@ -31237,7 +31344,7 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -31335,7 +31442,7 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>1</v>
       </c>
@@ -31411,7 +31518,9 @@
       <c r="Y142" s="18">
         <v>100</v>
       </c>
-      <c r="Z142" s="9"/>
+      <c r="Z142" s="18">
+        <v>100</v>
+      </c>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
@@ -31483,7 +31592,7 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -31509,8 +31618,9 @@
       <c r="W143" s="13"/>
       <c r="X143" s="13"/>
       <c r="Y143" s="13"/>
+      <c r="Z143" s="13"/>
     </row>
-    <row r="144" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>0</v>
       </c>
@@ -31521,9 +31631,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="24" man="1"/>
-    <brk id="84" max="24" man="1"/>
-    <brk id="104" max="24" man="1"/>
+    <brk id="42" max="25" man="1"/>
+    <brk id="84" max="25" man="1"/>
+    <brk id="104" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAC6A6D-4473-40EC-8F1E-7E7A2C36E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD2D92B-06E6-4DD4-BB19-B2079D785342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23569,9 +23569,9 @@
   <dimension ref="A1:CR144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23798,10 +23798,10 @@
         <v>619763.92043209937</v>
       </c>
       <c r="Y12" s="8">
-        <v>698212.55135209323</v>
+        <v>697906.10742185055</v>
       </c>
       <c r="Z12" s="8">
-        <v>733586.12326217524</v>
+        <v>732392.11330421316</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -24098,10 +24098,10 @@
         <v>104044.56830134388</v>
       </c>
       <c r="Y14" s="8">
-        <v>121647.19734366552</v>
+        <v>121752.37868424846</v>
       </c>
       <c r="Z14" s="8">
-        <v>138413.30735432584</v>
+        <v>139203.98332872367</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24248,10 +24248,10 @@
         <v>9445.1805395926694</v>
       </c>
       <c r="Y15" s="8">
-        <v>10237.723484281127</v>
+        <v>10274.674659075714</v>
       </c>
       <c r="Z15" s="8">
-        <v>11300.253588145304</v>
+        <v>11518.952738769874</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24496,10 +24496,10 @@
         <v>746104.17027961928</v>
       </c>
       <c r="Y17" s="12">
-        <v>844360.23273107305</v>
+        <v>844195.92131620785</v>
       </c>
       <c r="Z17" s="12">
-        <v>897233.40863924113</v>
+        <v>897048.77380630153</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -25018,10 +25018,10 @@
         <v>526788.51726886677</v>
       </c>
       <c r="Y33" s="8">
-        <v>557477.48004116863</v>
+        <v>557186.65910545969</v>
       </c>
       <c r="Z33" s="8">
-        <v>600892.94915744534</v>
+        <v>599814.49212255538</v>
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -25318,10 +25318,10 @@
         <v>100365.31545581468</v>
       </c>
       <c r="Y35" s="8">
-        <v>106435.84069105686</v>
+        <v>106528.95833482558</v>
       </c>
       <c r="Z35" s="8">
-        <v>112676.88599972607</v>
+        <v>113306.57005091861</v>
       </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -25468,10 +25468,10 @@
         <v>8425.6342599601303</v>
       </c>
       <c r="Y36" s="8">
-        <v>8813.8318991565575</v>
+        <v>8845.8507530919123</v>
       </c>
       <c r="Z36" s="8">
-        <v>9519.9618973301131</v>
+        <v>9706.1035910132032</v>
       </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -25716,10 +25716,10 @@
         <v>647222.0005811865</v>
       </c>
       <c r="Y38" s="12">
-        <v>684918.4132137897</v>
+        <v>684752.72877578472</v>
       </c>
       <c r="Z38" s="12">
-        <v>734819.48342867638</v>
+        <v>734556.85213866213</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -26236,10 +26236,10 @@
         <v>16.894533011090985</v>
       </c>
       <c r="X54" s="18">
-        <v>12.657824751285858</v>
+        <v>12.608379483476611</v>
       </c>
       <c r="Y54" s="18">
-        <v>5.0663042137499446</v>
+        <v>4.9413532158012003</v>
       </c>
       <c r="Z54" s="18"/>
       <c r="AA54" s="9"/>
@@ -26522,10 +26522,10 @@
         <v>3.8241841048436243</v>
       </c>
       <c r="X56" s="18">
-        <v>16.918354633698158</v>
+        <v>17.019447215752308</v>
       </c>
       <c r="Y56" s="18">
-        <v>13.782569904421521</v>
+        <v>14.333686810123083</v>
       </c>
       <c r="Z56" s="18"/>
       <c r="AA56" s="9"/>
@@ -26665,10 +26665,10 @@
         <v>10.310274490917863</v>
       </c>
       <c r="X57" s="18">
-        <v>8.3909771906025981</v>
+        <v>8.7821944324509218</v>
       </c>
       <c r="Y57" s="18">
-        <v>10.378577869343445</v>
+        <v>12.110145780577881</v>
       </c>
       <c r="Z57" s="18"/>
       <c r="AA57" s="9"/>
@@ -26901,10 +26901,10 @@
         <v>14.615882348429011</v>
       </c>
       <c r="X59" s="18">
-        <v>13.169215019215088</v>
+        <v>13.14719243558531</v>
       </c>
       <c r="Y59" s="18">
-        <v>6.2619216133794424</v>
+        <v>6.2607329833682854</v>
       </c>
       <c r="Z59" s="18"/>
       <c r="AA59" s="9"/>
@@ -27404,10 +27404,10 @@
         <v>4.8912066513450867</v>
       </c>
       <c r="X75" s="18">
-        <v>5.8256704097136947</v>
+        <v>5.770464017361661</v>
       </c>
       <c r="Y75" s="18">
-        <v>7.7878426789671522</v>
+        <v>7.6505480381624551</v>
       </c>
       <c r="Z75" s="18"/>
       <c r="AA75" s="9"/>
@@ -27690,10 +27690,10 @@
         <v>6.5169461128542281</v>
       </c>
       <c r="X77" s="18">
-        <v>6.0484293878542985</v>
+        <v>6.1412080966600513</v>
       </c>
       <c r="Y77" s="18">
-        <v>5.8636689184281607</v>
+        <v>6.3622247152653699</v>
       </c>
       <c r="Z77" s="18"/>
       <c r="AA77" s="9"/>
@@ -27833,10 +27833,10 @@
         <v>8.9165004657511702</v>
       </c>
       <c r="X78" s="18">
-        <v>4.6073402573525044</v>
+        <v>4.9873573925314219</v>
       </c>
       <c r="Y78" s="18">
-        <v>8.0116118193850383</v>
+        <v>9.7249305005581874</v>
       </c>
       <c r="Z78" s="18"/>
       <c r="AA78" s="9"/>
@@ -28069,10 +28069,10 @@
         <v>5.1382489065533719</v>
       </c>
       <c r="X80" s="18">
-        <v>5.8243404270486678</v>
+        <v>5.798741105972411</v>
       </c>
       <c r="Y80" s="18">
-        <v>7.2856955298865103</v>
+        <v>7.2733004586806373</v>
       </c>
       <c r="Z80" s="18"/>
       <c r="AA80" s="9"/>
@@ -28574,10 +28574,10 @@
         <v>117.64947414671514</v>
       </c>
       <c r="Y95" s="18">
-        <v>125.24497873896748</v>
+        <v>125.25535132917757</v>
       </c>
       <c r="Z95" s="18">
-        <v>122.0826645229884</v>
+        <v>122.10310403013224</v>
       </c>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
@@ -28874,10 +28874,10 @@
         <v>103.66586088911261</v>
       </c>
       <c r="Y97" s="18">
-        <v>114.29157373479248</v>
+        <v>114.29040571444898</v>
       </c>
       <c r="Z97" s="18">
-        <v>122.84090576896341</v>
+        <v>122.8560561547023</v>
       </c>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
@@ -29024,10 +29024,10 @@
         <v>112.1005285557857</v>
       </c>
       <c r="Y98" s="18">
-        <v>116.15519335308436</v>
+        <v>116.15247584280553</v>
       </c>
       <c r="Z98" s="18">
-        <v>118.70061781775067</v>
+        <v>118.677413966972</v>
       </c>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
@@ -29272,10 +29272,10 @@
         <v>115.27793703082396</v>
       </c>
       <c r="Y100" s="18">
-        <v>123.27895066642272</v>
+        <v>123.28478381173873</v>
       </c>
       <c r="Z100" s="18">
-        <v>122.10256108789324</v>
+        <v>122.12108173717857</v>
       </c>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
@@ -29598,10 +29598,10 @@
         <v>83.066674215187533</v>
       </c>
       <c r="Y116" s="18">
-        <v>82.691311632919167</v>
+        <v>82.671106291739363</v>
       </c>
       <c r="Z116" s="18">
-        <v>81.760901477659417</v>
+        <v>81.644625653583191</v>
       </c>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -29748,10 +29748,10 @@
         <v>1.7223467604754534</v>
       </c>
       <c r="Y117" s="18">
-        <v>1.6891795703002805</v>
+        <v>1.6895083464506375</v>
       </c>
       <c r="Z117" s="18">
-        <v>1.5529654045904278</v>
+        <v>1.5532850432950445</v>
       </c>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -29898,10 +29898,10 @@
         <v>13.945045805380078</v>
       </c>
       <c r="Y118" s="18">
-        <v>14.407025891093797</v>
+        <v>14.422289377378316</v>
       </c>
       <c r="Z118" s="18">
-        <v>15.426677832276189</v>
+        <v>15.517994940014464</v>
       </c>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -30048,10 +30048,10 @@
         <v>1.2659332189569288</v>
       </c>
       <c r="Y119" s="18">
-        <v>1.212482905686751</v>
+        <v>1.2170959844316946</v>
       </c>
       <c r="Z119" s="18">
-        <v>1.2594552854739831</v>
+        <v>1.2840943631073003</v>
       </c>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
@@ -30818,10 +30818,10 @@
         <v>81.392245133173162</v>
       </c>
       <c r="Y137" s="18">
-        <v>81.393268057338418</v>
+        <v>81.370491228506623</v>
       </c>
       <c r="Z137" s="18">
-        <v>81.774226556115764</v>
+        <v>81.656646504105922</v>
       </c>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -30968,10 +30968,10 @@
         <v>1.7988470086137778</v>
       </c>
       <c r="Y138" s="18">
-        <v>1.779958071969977</v>
+        <v>1.7803887549602504</v>
       </c>
       <c r="Z138" s="18">
-        <v>1.5962677417648266</v>
+        <v>1.5968384666243216</v>
       </c>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -31118,10 +31118,10 @@
         <v>15.507092676962394</v>
       </c>
       <c r="Y139" s="18">
-        <v>15.539929813192815</v>
+        <v>15.5572886179337</v>
       </c>
       <c r="Z139" s="18">
-        <v>15.333954602560942</v>
+        <v>15.425160043232399</v>
       </c>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -31268,10 +31268,10 @@
         <v>1.3018151812506615</v>
       </c>
       <c r="Y140" s="18">
-        <v>1.286844057498775</v>
+        <v>1.2918313985994199</v>
       </c>
       <c r="Z140" s="18">
-        <v>1.2955510995584736</v>
+        <v>1.3213549860373481</v>
       </c>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>

--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD2D92B-06E6-4DD4-BB19-B2079D785342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B4E50-1170-4626-9709-93F36D5BBC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$Z$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$AA$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -620,13 +620,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23571,14 +23574,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="66" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="26" width="10.77734375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="10.77734375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23593,7 +23596,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23603,7 +23606,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23640,6 +23643,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23719,6 +23723,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23803,7 +23810,9 @@
       <c r="Z12" s="8">
         <v>732392.11330421316</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>749112.62077177363</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -23953,7 +23962,9 @@
       <c r="Z13" s="8">
         <v>13933.724434594877</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="8">
+        <v>14067.502399480672</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -24103,7 +24114,9 @@
       <c r="Z14" s="8">
         <v>139203.98332872367</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="8">
+        <v>151069.64931366695</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -24253,7 +24266,9 @@
       <c r="Z15" s="8">
         <v>11518.952738769874</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="8">
+        <v>12402.474085634261</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -24351,7 +24366,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="10"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -24501,7 +24516,9 @@
       <c r="Z17" s="12">
         <v>897048.77380630153</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="12">
+        <v>926652.24657055549</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -24599,6 +24616,7 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
     </row>
     <row r="19" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -24813,7 +24831,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
@@ -24823,7 +24841,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
@@ -24860,6 +24878,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -24939,6 +24958,9 @@
       </c>
       <c r="Z31" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA31" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25023,7 +25045,9 @@
       <c r="Z33" s="8">
         <v>599814.49212255538</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="8">
+        <v>597399.1672044294</v>
+      </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
@@ -25173,7 +25197,9 @@
       <c r="Z34" s="8">
         <v>11729.686374174897</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="8">
+        <v>12187.329677892962</v>
+      </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
@@ -25323,7 +25349,9 @@
       <c r="Z35" s="8">
         <v>113306.57005091861</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="8">
+        <v>116315.90453366245</v>
+      </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
@@ -25473,7 +25501,9 @@
       <c r="Z36" s="8">
         <v>9706.1035910132032</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="AA36" s="8">
+        <v>10339.810199254782</v>
+      </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
@@ -25571,7 +25601,7 @@
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="10"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -25721,7 +25751,9 @@
       <c r="Z38" s="12">
         <v>734556.85213866213</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="12">
+        <v>736242.21161523962</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
@@ -25819,6 +25851,7 @@
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
     </row>
     <row r="40" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -26033,7 +26066,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
@@ -26043,7 +26076,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
@@ -26083,6 +26116,7 @@
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
       <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -26160,7 +26194,10 @@
       <c r="Y52" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Z52" s="17"/>
+      <c r="Z52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA52" s="17"/>
     </row>
     <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -26241,8 +26278,10 @@
       <c r="Y54" s="18">
         <v>4.9413532158012003</v>
       </c>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="9"/>
+      <c r="Z54" s="18">
+        <v>2.2829993884184887</v>
+      </c>
+      <c r="AA54" s="18"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
@@ -26384,8 +26423,10 @@
       <c r="Y55" s="18">
         <v>-2.3069595486862227</v>
       </c>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="9"/>
+      <c r="Z55" s="18">
+        <v>0.96010198503459776</v>
+      </c>
+      <c r="AA55" s="18"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
@@ -26527,8 +26568,10 @@
       <c r="Y56" s="18">
         <v>14.333686810123083</v>
       </c>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="9"/>
+      <c r="Z56" s="18">
+        <v>8.5239414140348799</v>
+      </c>
+      <c r="AA56" s="18"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
@@ -26670,8 +26713,10 @@
       <c r="Y57" s="18">
         <v>12.110145780577881</v>
       </c>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="9"/>
+      <c r="Z57" s="18">
+        <v>7.6701534149947292</v>
+      </c>
+      <c r="AA57" s="18"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
@@ -26906,8 +26951,10 @@
       <c r="Y59" s="18">
         <v>6.2607329833682854</v>
       </c>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="9"/>
+      <c r="Z59" s="18">
+        <v>3.3000962298451526</v>
+      </c>
+      <c r="AA59" s="18"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
@@ -27000,6 +27047,7 @@
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
     </row>
     <row r="61" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -27033,7 +27081,7 @@
       <c r="X62" s="19"/>
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
-      <c r="AA62" s="9"/>
+      <c r="AA62" s="19"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
@@ -27204,7 +27252,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.2">
@@ -27214,7 +27262,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.2">
@@ -27251,6 +27299,7 @@
       <c r="X72" s="16"/>
       <c r="Y72" s="16"/>
       <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
@@ -27328,7 +27377,10 @@
       <c r="Y73" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z73" s="6"/>
+      <c r="Z73" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA73" s="6"/>
     </row>
     <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -27409,8 +27461,10 @@
       <c r="Y75" s="18">
         <v>7.6505480381624551</v>
       </c>
-      <c r="Z75" s="18"/>
-      <c r="AA75" s="9"/>
+      <c r="Z75" s="18">
+        <v>-0.40267865312472395</v>
+      </c>
+      <c r="AA75" s="18"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
       <c r="AD75" s="9"/>
@@ -27552,8 +27606,10 @@
       <c r="Y76" s="18">
         <v>-3.7861073111562007</v>
       </c>
-      <c r="Z76" s="18"/>
-      <c r="AA76" s="9"/>
+      <c r="Z76" s="18">
+        <v>3.9015817569142683</v>
+      </c>
+      <c r="AA76" s="18"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AD76" s="9"/>
@@ -27695,8 +27751,10 @@
       <c r="Y77" s="18">
         <v>6.3622247152653699</v>
       </c>
-      <c r="Z77" s="18"/>
-      <c r="AA77" s="9"/>
+      <c r="Z77" s="18">
+        <v>2.6559223188836114</v>
+      </c>
+      <c r="AA77" s="18"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
       <c r="AD77" s="9"/>
@@ -27838,8 +27896,10 @@
       <c r="Y78" s="18">
         <v>9.7249305005581874</v>
       </c>
-      <c r="Z78" s="18"/>
-      <c r="AA78" s="9"/>
+      <c r="Z78" s="18">
+        <v>6.5289495655942034</v>
+      </c>
+      <c r="AA78" s="18"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
       <c r="AD78" s="9"/>
@@ -28074,8 +28134,10 @@
       <c r="Y80" s="18">
         <v>7.2733004586806373</v>
       </c>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="9"/>
+      <c r="Z80" s="18">
+        <v>0.22943894290420985</v>
+      </c>
+      <c r="AA80" s="18"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
       <c r="AD80" s="9"/>
@@ -28168,6 +28230,7 @@
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
+      <c r="AA81" s="13"/>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -28295,7 +28358,7 @@
       <c r="X84" s="19"/>
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
-      <c r="AA84" s="9"/>
+      <c r="AA84" s="19"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
       <c r="AD84" s="9"/>
@@ -28369,7 +28432,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.2">
@@ -28379,7 +28442,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.2">
@@ -28416,6 +28479,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
     </row>
     <row r="93" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
@@ -28495,6 +28559,9 @@
       </c>
       <c r="Z93" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA93" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28579,7 +28646,9 @@
       <c r="Z95" s="18">
         <v>122.10310403013224</v>
       </c>
-      <c r="AA95" s="9"/>
+      <c r="AA95" s="18">
+        <v>125.39565869790175</v>
+      </c>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
       <c r="AD95" s="9"/>
@@ -28729,7 +28798,9 @@
       <c r="Z96" s="18">
         <v>118.7902556821347</v>
       </c>
-      <c r="AA96" s="9"/>
+      <c r="AA96" s="18">
+        <v>115.42727382683529</v>
+      </c>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
       <c r="AD96" s="9"/>
@@ -28879,7 +28950,9 @@
       <c r="Z97" s="18">
         <v>122.8560561547023</v>
       </c>
-      <c r="AA97" s="9"/>
+      <c r="AA97" s="18">
+        <v>129.87875554881367</v>
+      </c>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
       <c r="AD97" s="9"/>
@@ -29029,7 +29102,9 @@
       <c r="Z98" s="18">
         <v>118.677413966972</v>
       </c>
-      <c r="AA98" s="9"/>
+      <c r="AA98" s="18">
+        <v>119.94875966415846</v>
+      </c>
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
       <c r="AD98" s="9"/>
@@ -29127,7 +29202,7 @@
       <c r="X99" s="18"/>
       <c r="Y99" s="18"/>
       <c r="Z99" s="18"/>
-      <c r="AA99" s="9"/>
+      <c r="AA99" s="18"/>
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
       <c r="AD99" s="9"/>
@@ -29277,7 +29352,9 @@
       <c r="Z100" s="18">
         <v>122.12108173717857</v>
       </c>
-      <c r="AA100" s="9"/>
+      <c r="AA100" s="18">
+        <v>125.8624175510904</v>
+      </c>
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
       <c r="AD100" s="9"/>
@@ -29375,6 +29452,7 @@
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
+      <c r="AA101" s="13"/>
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -29393,7 +29471,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
@@ -29403,7 +29481,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.2">
@@ -29440,6 +29518,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
@@ -29519,6 +29598,9 @@
       </c>
       <c r="Z114" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA114" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29603,7 +29685,9 @@
       <c r="Z116" s="18">
         <v>81.644625653583191</v>
       </c>
-      <c r="AA116" s="9"/>
+      <c r="AA116" s="18">
+        <v>80.840749433691244</v>
+      </c>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
       <c r="AD116" s="9"/>
@@ -29753,7 +29837,9 @@
       <c r="Z117" s="18">
         <v>1.5532850432950445</v>
       </c>
-      <c r="AA117" s="9"/>
+      <c r="AA117" s="18">
+        <v>1.5180994220370208</v>
+      </c>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
       <c r="AD117" s="9"/>
@@ -29903,7 +29989,9 @@
       <c r="Z118" s="18">
         <v>15.517994940014464</v>
       </c>
-      <c r="AA118" s="9"/>
+      <c r="AA118" s="18">
+        <v>16.302733832757667</v>
+      </c>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
       <c r="AD118" s="9"/>
@@ -30053,7 +30141,9 @@
       <c r="Z119" s="18">
         <v>1.2840943631073003</v>
       </c>
-      <c r="AA119" s="9"/>
+      <c r="AA119" s="18">
+        <v>1.3384173115140594</v>
+      </c>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
       <c r="AD119" s="9"/>
@@ -30301,7 +30391,9 @@
       <c r="Z121" s="18">
         <v>100</v>
       </c>
-      <c r="AA121" s="9"/>
+      <c r="AA121" s="18">
+        <v>100</v>
+      </c>
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
       <c r="AD121" s="9"/>
@@ -30399,6 +30491,7 @@
       <c r="X122" s="13"/>
       <c r="Y122" s="13"/>
       <c r="Z122" s="13"/>
+      <c r="AA122" s="13"/>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -30613,7 +30706,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
@@ -30623,7 +30716,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.2">
@@ -30660,6 +30753,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
     </row>
     <row r="135" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
@@ -30739,6 +30833,9 @@
       </c>
       <c r="Z135" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA135" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30823,7 +30920,9 @@
       <c r="Z137" s="18">
         <v>81.656646504105922</v>
       </c>
-      <c r="AA137" s="9"/>
+      <c r="AA137" s="18">
+        <v>81.141662048118263</v>
+      </c>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
       <c r="AD137" s="9"/>
@@ -30973,7 +31072,9 @@
       <c r="Z138" s="18">
         <v>1.5968384666243216</v>
       </c>
-      <c r="AA138" s="9"/>
+      <c r="AA138" s="18">
+        <v>1.6553424247647002</v>
+      </c>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
       <c r="AD138" s="9"/>
@@ -31123,7 +31224,9 @@
       <c r="Z139" s="18">
         <v>15.425160043232399</v>
       </c>
-      <c r="AA139" s="9"/>
+      <c r="AA139" s="18">
+        <v>15.79859218863278</v>
+      </c>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
       <c r="AD139" s="9"/>
@@ -31273,7 +31376,9 @@
       <c r="Z140" s="18">
         <v>1.3213549860373481</v>
       </c>
-      <c r="AA140" s="9"/>
+      <c r="AA140" s="18">
+        <v>1.4044033384842609</v>
+      </c>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
       <c r="AD140" s="9"/>
@@ -31521,7 +31626,9 @@
       <c r="Z142" s="18">
         <v>100</v>
       </c>
-      <c r="AA142" s="9"/>
+      <c r="AA142" s="18">
+        <v>100</v>
+      </c>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
       <c r="AD142" s="9"/>
@@ -31619,6 +31726,7 @@
       <c r="X143" s="13"/>
       <c r="Y143" s="13"/>
       <c r="Z143" s="13"/>
+      <c r="AA143" s="13"/>
     </row>
     <row r="144" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -31631,9 +31739,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="25" man="1"/>
-    <brk id="84" max="25" man="1"/>
-    <brk id="104" max="25" man="1"/>
+    <brk id="42" max="26" man="1"/>
+    <brk id="84" max="26" man="1"/>
+    <brk id="104" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>